--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00259350</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Prevention of Central Venous Catheter Infections : Comparison of the Efficacy of Skin Disinfection With 5% Povidone Iodine in Alcoholic Solution Versus 0.25% Chlorhexidine, 0.025 Benzalkonium and 4% Benzylic Alcohol</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00219752</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase With Age More Than 70, Diagnosis of CML is Being Performed Within 1 Year</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00461825</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Efficacy and Safety of Maintenance Neoral Compared to Bitherapy Neoral-Imurel or Neoral-CellCept in Renal Transplantation</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00219726</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -684,36 +709,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01320384</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clinical Effect of the Association of Noninvasive Ventilation and High Flow Nasal Oxygen Therapy in Resuscitation of Patients With Acute Lung Injury. A Randomised Study (FLORALI Study)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>FLORALI</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -732,28 +762,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02205632</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -772,36 +807,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT00219739</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>A Phase III Prospective Randomized Comparison of Imatinib at a Dose of 400mg in Combination With Peg-Interferon-alpha2a (Peg-IFNa2a) or Cytarabine (Ara-C)Versus Imatinib at a Dose of 600mg Versus Imatinib a Dose of 400mg for Previously Untreated Chronic Myelogenous Leukemia (CML) in Chronic Phase</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>SPIRIT</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -820,28 +860,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01823965</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -860,32 +905,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01628237</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
         <is>
           <t>ESTIMET</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
       <c r="J10" t="b">
         <v>1</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -904,32 +954,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT03186144</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
         <is>
           <t>CHARGE</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>GENETIC</t>
         </is>
@@ -948,32 +1003,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT02703857</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
         <is>
           <t>PROPHYLOXITINE</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -992,32 +1052,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT02797730</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
         <is>
           <t>EDUCARTPED</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1036,32 +1101,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT02930382</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
         <is>
           <t>BARODEF</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1080,36 +1150,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT02193737</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Effects of Drinking at PACU Discharge After General Anaesthesia With Airway Control on Aspiration, Vomiting and Patients Comfort.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>I-DRINC</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1126,34 +1201,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2010-019837-85</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Étude de la toxicité cutanée du cétuximab (anti-Epidermal Growth Factor Receptor): recherche d’un lien entre la réponse inflammatoire cutanée et la réponse radiologique.</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1168,28 +1248,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01292356</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1208,28 +1293,33 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01958996</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1246,35 +1336,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2012-005263-27</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>EVALUATION OF EARLY PRE-OPERATIVE INTRAVESICAL INSTILLATION OF MYTOMYCIN-C AFTER TRANSURETHRAL RESECTION OF BLADDER TUMOR COMPARED TO  EARLY POST-OPERATIVE INSTILLATION. A RANDOMIZED MULTICENTER STUDY. 
  Evaluation de la mitomycine C en installation pré-opératoire immédiate (IPOI) des résections endoscopiques des tumeurs de vessie comparée à l’installation post-opératoire précoce (IPOP).Etude multicentrique randomisée.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1289,36 +1384,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT02725190</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Effects of Sleep Deprivation on Diaphragm Command During an Inspiratory Endurance Trial in Healthy Volunteers.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>NoSleepDiaph</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1337,32 +1437,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT02825121</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
         <is>
           <t>CurHaTOF</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1381,32 +1486,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT02920281</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
         <is>
           <t>WEAN SLEEP 1</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
       <c r="J22" t="b">
         <v>1</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1425,32 +1535,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02869828</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
         <is>
           <t>TEMP CORE BLOC</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1469,32 +1584,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT03367065</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>PERFE-CT</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1513,32 +1633,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT03223506</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Validation of a Physiological Based Pharmacokinetic Model by the Study of Paracetamol Distribution in the Brain Compartments in Brain Injured Patients</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1557,32 +1682,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT03447457</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1601,36 +1731,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT02399709</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>ADDICSTATINE</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1649,36 +1784,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02717468</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Comparative Noninvasive Continuous Cardiac Output by the Clearsight With Invasive Monitoring by Pulsioflex in Abdominal Surgery</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>CLEARSIGHT</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1697,36 +1837,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02821897</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Value of Target-controlled Intravenous Anaesthesia (TCIVA) to Optimize Coverage of the Low Back Pain Territory in Patients With Chronic Refractory Postoperative Multifocal Low Back and Legpain</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>AIVOC</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1745,36 +1890,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT03439644</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Physiological Upper Eyelid Laxity</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>LAX</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1793,36 +1943,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02668458</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Comparison of Pre-oxygenation by Non-invasive Ventilation With High-flow Nasal Oxygen Therapy for Intubation of Intensive Care Patients in Cases of Acute Respiratory Failure: A Prospective, Randomized, Controlled Study (FLORALI 2)</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>FLORALI2</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
       <c r="J31" t="b">
         <v>1</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1841,32 +1996,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02515448</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
         <is>
           <t>GENTAERO</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1885,28 +2045,33 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT03198637</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="b">
         <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1925,32 +2090,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02941952</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
         <is>
           <t>CLEARPICCO</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1969,36 +2139,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT03211676</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Comparison of Hemodialysis With Medium Cut-off Dialyzer (Theranova) and High Flux Dialyzer on Removal of Small and Middle Size Molecules, Inflammatory Parameters and Oxidative Stress. An Open Cross Over Randomized Study</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>THERANOVA</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2017,32 +2192,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02931227</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
         <is>
           <t>TempCore</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2061,36 +2241,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT03644836</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Interest of Branched Chain Amino Acids Associated With a Respiratory Rehabilitation Program in Patients Broncho Chronic Obstructive Pulmonary Disease. Randomized Study Against Placebo</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>REHABAAR</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2109,36 +2294,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT03747874</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>SAS-SB</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2157,36 +2347,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT03121482</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>HIGH-WEAN</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2205,36 +2400,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT03634878</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>PROMONOTECHO</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2253,32 +2453,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02534974</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
         <is>
           <t>AGATE</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2297,28 +2502,33 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02110888</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2337,36 +2547,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT03025841</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>CEFTAREA</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2385,36 +2600,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02320474</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Efficacy of Aflibercept (Eylea®) on Choroidal Neovascularization (Type 3)</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>ATTRACT</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2433,36 +2653,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT03456557</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>The Use of Perfusion CT Derived Parameters as Early Acute Pancreatitis Severity Biomarker Compared to Clinico Biological Score</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>K-PA</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -2481,36 +2706,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT03757143</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Skin Antisepsis With Chlorhexidine-Alcohol Versus Povidone Iodine-Alcohol, Combined or Not With Use of a Bundle of New Devices, for Prevention of Intravascular-catheter Colonization and Catheter Failure: An Open Label, Single Center, Randomized Controlled, Two-by-two Factorial Trial</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>CLEAN3</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2529,32 +2759,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT03227965</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Immunosuppression's Long Term Impact on Anti-tumoral Oversight in Kidney Transplantation</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2573,36 +2808,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT03537105</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>SCLEROKINE</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2621,36 +2861,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT03847740</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>MONITOF</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2669,36 +2914,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT03250871</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>PAINLESS</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2717,36 +2967,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02978300</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>FLORALI-IM</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2765,36 +3020,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT03981042</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>MONITURARE</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2813,36 +3073,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02964130</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>A Multicenter Prospective Study on Failed Back Surgery Syndrome Pathway Optimization: A Focus on Patient Identification, Chronicization Factors and Outcome Predictors</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>PREDIBACK</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2861,36 +3126,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT02482883</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Transcutaneous Trigeminal Nerve Stimulation for Prevention of Cerebral Vasospasm and Its Consequences After Subarachnoid Haemorrhage Due to Ruptured Aneurysm: a Multicentre, Randomized, Double-blind Study</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>TRIVASOSTIM</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2909,36 +3179,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02273661</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>NEBULAMB</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2957,32 +3232,37 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03404427</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Effects of Sleep Privation on Sensorimotor Integration of the Upper Limb During a Manual Endurance Test in Healthy Volunteers-Physiological Study</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3001,36 +3281,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT04371965</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>KILLER</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3049,32 +3334,37 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02151695</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Phase 2 Study of Safety and Efficacy of Aflibercept in Proliferative Diabetic Retinopathy.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3093,36 +3383,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03389984</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Characterization of the Initial Psoriatic Skin Transcriptionnl Profile Associated to a Response to Adalimumab Therapy</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>IMPRA</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3141,36 +3436,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT03566004</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Performance of a Non-invasive Test for the Detection of Helicobacter Pylori and Its Resistance to Clarithromycin in Stool by Real-Time PCR Amplidiag H. Pylori + ClariR (Mobidiag)</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>HEPYSTOOL</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3189,32 +3489,37 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02334488</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Prospective Multicenter Randomized Openlabel Study to Evaluate the Benefit on Renal Function at 12months Post-transplantation of Immunosuppressive Treatment With Withdrawal of Calcineurin Inhibitor at 3months and Combining Mycophenolate Sodium-Everolimus Versus Tacrolimus-Everolimus, in Patients With de Novo Kidney Transplant</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3233,32 +3538,37 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03233984</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Effect of an Environmental Health Education Program on Pregnant Women in Order to Reduce Endocrine Disruptor Exposition : Controled Randomized Trial on Primary Prevention</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>1</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3277,32 +3587,37 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT03461094</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3321,36 +3636,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02265406</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>PROPHY-VAP: Prevention of Early Ventilation Acquired Pneumonia (VAP) in Brain Injured Patients by a Single Dose of Ceftriaxone</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>PROPHY-VAP</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
       <c r="J64" t="b">
         <v>1</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3369,36 +3689,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT03856983</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Benefits of Observing Point-light Displays in Postoperative Rehabilitation of the Total Knee Prosthesis.</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>LOARAL</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3417,32 +3742,37 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT03374930</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Influence of Oesophageal Contractile Reserve in High Resolution Manometry on Post Operative Dysphagia After Anti-reflux Surgery</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3461,36 +3791,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT04118725</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Assessment of Muscular Respiratory Involvement in Systemic Sclerosis</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>SIROCO</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3509,36 +3844,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT04034797</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>NiCEPHORE</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3557,36 +3897,41 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT03209843</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>PERFECTO</t>
         </is>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3605,32 +3950,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT04978740</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3649,36 +3999,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT04391660</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Estimation of the Incidence of Colonization of Peripheral Venous Catheters After Skin Disinfection With 0.5% Sodium Hypochlorite, Preceded or Not by an Application of 70% Ethanol: Pilot, Monocentric, Randomized, Open-label Study</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>DACLEAN</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3697,36 +4052,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03496285</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>ACCUMBENS</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -3745,36 +4105,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT03344263</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>VISA</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3793,32 +4158,37 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT05003024</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Sugamamdex</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3837,32 +4207,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02463617</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3881,36 +4256,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT04227639</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>TiP-Ex</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
       <c r="J76" t="b">
         <v>1</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3929,32 +4309,37 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT03105921</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3973,36 +4358,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03014583</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>MULTIWAVE</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
       <c r="J78" t="b">
         <v>1</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4021,36 +4411,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT04387955</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Analysis of Chilblains Profile During COVID-19 Epidemic</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>ACROVID</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4069,36 +4464,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT02703922</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Evaluation of a Diagnostic Strategy for Giant Cell Arteritis Based on Color Doppler Ultrasound of Temporal Arteries</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>ECHORTON</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4117,32 +4517,37 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT04387253</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4161,32 +4566,37 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT05231525</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Recovery Evaluation of Two Neuromuscular Blockade Monitoring Devices on Abductor Pollicis Muscle, the TOFScan and the Wireless WiTOF</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4205,36 +4615,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT03560193</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>CLEAN2</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
       <c r="J83" t="b">
         <v>1</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4253,32 +4668,37 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT04456972</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="b">
         <v>0</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4297,36 +4717,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04792879</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>CODOVEIN</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4345,36 +4770,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT05224648</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Neostigmine</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>DECURATOF 2</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4393,36 +4823,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT03497832</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Diurnal Variations of Cerebral Metabolite Concentrations in Proton Magnetic Resonance Spectroscopy</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Dyn24</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4441,32 +4876,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT04971213</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4485,36 +4925,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT05158010</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Advancing Tools for Human Early Lifecourse Exposome Research and Translation- Adolescence Follow-up of the HELIX Subcohort</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>ATHLETE</t>
         </is>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4531,34 +4976,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2021-000304-38</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4573,36 +5023,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT04936880</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Pilot Study on the Evaluation of the Effectiveness of a Virtual Reality Device on Anxiety During Procedural Sedation in Traumatology in Emergency Department</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>VIRTUAL DREAM</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4621,36 +5076,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT05064839</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Imaging for the Evaluation of Transthyretin Cardiac Amyloidosis Prevalence of Patients Over 65 Hospitalized in Cardiology Wards (the IMPACT Study)</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>IMPACT</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4669,32 +5129,37 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT03863041</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4713,32 +5178,37 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT03481569</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4757,36 +5227,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT05404425</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>NIEPCE</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4805,36 +5280,41 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT06533982</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>WOMEN-EX-MOD</t>
         </is>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
       <c r="J96" t="b">
         <v>0</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4853,36 +5333,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT05963672</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Assessment of Sleep Quality of Hospitalized Patients Treated With EEG-guided Protection Procedures: Application in Intensive Care Unit. (SleepScan)</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>SleepScan</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4901,36 +5386,41 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT05036772</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>Assessment of Patients' Pain and Anxiety During a Hysterosalpingography Narratified by a Virtual Reality Helmet.</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>Daphné</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4949,36 +5439,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT03444779</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Comparative Evaluation of Minimally Invasive "tibial Tuberoplasty" Surgical Technique Versus Conventional Open Surgery for Tibial Plateau Fractures (TUBERIMPACT Study)</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>TUBERIMPACT</t>
         </is>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
       <c r="J99" t="b">
         <v>1</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4997,36 +5492,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT03389997</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>Assessement of Viral Shedding Duration After a Respiratory Tract Infection in Oncology and Hematology Patients</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>ONCOVIR</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -5045,36 +5545,41 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT05610683</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr">
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>Comparison of the Removal of Uremic Toxins With Medium Cut-off and Super High-flux Vitamin E-coated Dialyzers The E-FLUX Randomized Study</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>E-FLUX</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5093,24 +5598,29 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT01061047</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5129,28 +5639,33 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT00992615</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Comparison of 20-core vs 12-core Prostate Biopsy Diagnostic Performance in the Detection of Prostate Cancer</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5169,24 +5684,29 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT01059890</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5205,24 +5725,29 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT00845221</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5241,24 +5766,29 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>NCT01675986</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5277,24 +5807,29 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT01673542</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5313,24 +5848,29 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT01351142</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5349,24 +5889,29 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>NCT02545595</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5385,28 +5930,33 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT01537614</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr">
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr">
         <is>
           <t>COLI-VLM</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5425,24 +5975,29 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT01291537</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5461,28 +6016,33 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>NCT01629550</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr">
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
         <is>
           <t>CLEAN</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5501,28 +6061,33 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>NCT02142075</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
         <is>
           <t>DAPTOREA</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5541,24 +6106,29 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>NCT01872546</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5577,24 +6147,29 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>NCT02424890</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5613,32 +6188,37 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>NCT01532401</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
         <is>
           <t>Simplification of the Test of Sensibility in the Salt: Preliminary Study at the Child and the Adult</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>PLADSEL</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5657,24 +6237,29 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>NCT00779922</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5693,24 +6278,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>NCT01711060</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5729,24 +6319,29 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>NCT01060891</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5765,28 +6360,33 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>NCT01061073</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Tamsulosin (Alpha Blockers) Compared to Phloroglucinol in Improving JJ Ureteral Stent Tolerance. A Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5805,24 +6405,29 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>NCT01649726</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>

--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -55,22 +55,22 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
   </si>
   <si>
     <t>rouge</t>
   </si>
   <si>
-    <t>noir</t>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -70,7 +70,7 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00259350</t>

--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -73,36 +73,36 @@
     <t>NCT00219752</t>
   </si>
   <si>
+    <t>NCT00219726</t>
+  </si>
+  <si>
     <t>NCT00461825</t>
   </si>
   <si>
-    <t>NCT00219726</t>
-  </si>
-  <si>
     <t>NCT01320384</t>
   </si>
   <si>
+    <t>NCT01823965</t>
+  </si>
+  <si>
+    <t>NCT00219739</t>
+  </si>
+  <si>
     <t>NCT02205632</t>
   </si>
   <si>
-    <t>NCT00219739</t>
-  </si>
-  <si>
-    <t>NCT01823965</t>
-  </si>
-  <si>
     <t>NCT01628237</t>
   </si>
   <si>
     <t>NCT03186144</t>
   </si>
   <si>
+    <t>NCT02797730</t>
+  </si>
+  <si>
     <t>NCT02703857</t>
   </si>
   <si>
-    <t>NCT02797730</t>
-  </si>
-  <si>
     <t>NCT02930382</t>
   </si>
   <si>
@@ -115,247 +115,256 @@
     <t>NCT01958996</t>
   </si>
   <si>
+    <t>NCT02717468</t>
+  </si>
+  <si>
+    <t>NCT02399709</t>
+  </si>
+  <si>
+    <t>NCT03367065</t>
+  </si>
+  <si>
+    <t>NCT03447457</t>
+  </si>
+  <si>
+    <t>NCT02668458</t>
+  </si>
+  <si>
+    <t>NCT02515448</t>
+  </si>
+  <si>
+    <t>NCT03439644</t>
+  </si>
+  <si>
+    <t>NCT03223506</t>
+  </si>
+  <si>
+    <t>NCT02920281</t>
+  </si>
+  <si>
+    <t>NCT02869828</t>
+  </si>
+  <si>
+    <t>NCT02825121</t>
+  </si>
+  <si>
     <t>NCT02725190</t>
   </si>
   <si>
-    <t>NCT02825121</t>
-  </si>
-  <si>
-    <t>NCT02920281</t>
-  </si>
-  <si>
-    <t>NCT02869828</t>
-  </si>
-  <si>
-    <t>NCT03367065</t>
-  </si>
-  <si>
-    <t>NCT03223506</t>
-  </si>
-  <si>
-    <t>NCT03447457</t>
-  </si>
-  <si>
-    <t>NCT02399709</t>
-  </si>
-  <si>
-    <t>NCT02717468</t>
-  </si>
-  <si>
     <t>NCT02821897</t>
   </si>
   <si>
-    <t>NCT03439644</t>
-  </si>
-  <si>
-    <t>NCT02668458</t>
-  </si>
-  <si>
-    <t>NCT02515448</t>
+    <t>NCT03644836</t>
+  </si>
+  <si>
+    <t>NCT02320474</t>
+  </si>
+  <si>
+    <t>NCT02534974</t>
+  </si>
+  <si>
+    <t>NCT03121482</t>
+  </si>
+  <si>
+    <t>NCT03634878</t>
   </si>
   <si>
     <t>NCT03198637</t>
   </si>
   <si>
+    <t>NCT03025841</t>
+  </si>
+  <si>
     <t>NCT02941952</t>
   </si>
   <si>
+    <t>NCT03747874</t>
+  </si>
+  <si>
+    <t>NCT02110888</t>
+  </si>
+  <si>
+    <t>NCT02931227</t>
+  </si>
+  <si>
     <t>NCT03211676</t>
   </si>
   <si>
-    <t>NCT02931227</t>
-  </si>
-  <si>
-    <t>NCT03644836</t>
-  </si>
-  <si>
-    <t>NCT03747874</t>
-  </si>
-  <si>
-    <t>NCT03121482</t>
-  </si>
-  <si>
-    <t>NCT03634878</t>
-  </si>
-  <si>
-    <t>NCT02534974</t>
-  </si>
-  <si>
-    <t>NCT02110888</t>
-  </si>
-  <si>
-    <t>NCT03025841</t>
-  </si>
-  <si>
-    <t>NCT02320474</t>
-  </si>
-  <si>
     <t>NCT03456557</t>
   </si>
   <si>
+    <t>NCT02964130</t>
+  </si>
+  <si>
     <t>NCT03757143</t>
   </si>
   <si>
+    <t>NCT03981042</t>
+  </si>
+  <si>
+    <t>NCT03847740</t>
+  </si>
+  <si>
+    <t>NCT02978300</t>
+  </si>
+  <si>
+    <t>NCT03250871</t>
+  </si>
+  <si>
+    <t>NCT03537105</t>
+  </si>
+  <si>
     <t>NCT03227965</t>
   </si>
   <si>
-    <t>NCT03537105</t>
-  </si>
-  <si>
-    <t>NCT03847740</t>
-  </si>
-  <si>
-    <t>NCT03250871</t>
-  </si>
-  <si>
-    <t>NCT02978300</t>
-  </si>
-  <si>
-    <t>NCT03981042</t>
-  </si>
-  <si>
-    <t>NCT02964130</t>
+    <t>NCT02273661</t>
   </si>
   <si>
     <t>NCT02482883</t>
   </si>
   <si>
-    <t>NCT02273661</t>
+    <t>NCT02265406</t>
+  </si>
+  <si>
+    <t>NCT02151695</t>
+  </si>
+  <si>
+    <t>NCT04371965</t>
+  </si>
+  <si>
+    <t>NCT03461094</t>
+  </si>
+  <si>
+    <t>NCT03566004</t>
+  </si>
+  <si>
+    <t>NCT03233984</t>
+  </si>
+  <si>
+    <t>NCT03389984</t>
+  </si>
+  <si>
+    <t>NCT02334488</t>
   </si>
   <si>
     <t>NCT03404427</t>
   </si>
   <si>
-    <t>NCT04371965</t>
-  </si>
-  <si>
-    <t>NCT02151695</t>
-  </si>
-  <si>
-    <t>NCT03389984</t>
-  </si>
-  <si>
-    <t>NCT03566004</t>
-  </si>
-  <si>
-    <t>NCT02334488</t>
-  </si>
-  <si>
-    <t>NCT03233984</t>
-  </si>
-  <si>
-    <t>NCT03461094</t>
-  </si>
-  <si>
-    <t>NCT02265406</t>
+    <t>NCT04387955</t>
+  </si>
+  <si>
+    <t>NCT03496285</t>
+  </si>
+  <si>
+    <t>NCT04978740</t>
+  </si>
+  <si>
+    <t>NCT03344263</t>
+  </si>
+  <si>
+    <t>NCT03209843</t>
+  </si>
+  <si>
+    <t>NCT04034797</t>
   </si>
   <si>
     <t>NCT03856983</t>
   </si>
   <si>
+    <t>NCT03014583</t>
+  </si>
+  <si>
+    <t>NCT03105921</t>
+  </si>
+  <si>
+    <t>NCT02463617</t>
+  </si>
+  <si>
     <t>NCT03374930</t>
   </si>
   <si>
     <t>NCT04118725</t>
   </si>
   <si>
-    <t>NCT04034797</t>
-  </si>
-  <si>
-    <t>NCT03209843</t>
-  </si>
-  <si>
-    <t>NCT04978740</t>
-  </si>
-  <si>
     <t>NCT04391660</t>
   </si>
   <si>
-    <t>NCT03496285</t>
-  </si>
-  <si>
-    <t>NCT03344263</t>
+    <t>NCT04227639</t>
   </si>
   <si>
     <t>NCT05003024</t>
   </si>
   <si>
-    <t>NCT02463617</t>
-  </si>
-  <si>
-    <t>NCT04227639</t>
-  </si>
-  <si>
-    <t>NCT03105921</t>
-  </si>
-  <si>
-    <t>NCT03014583</t>
-  </si>
-  <si>
-    <t>NCT04387955</t>
+    <t>NCT03497832</t>
+  </si>
+  <si>
+    <t>NCT05158010</t>
+  </si>
+  <si>
+    <t>NCT04792879</t>
+  </si>
+  <si>
+    <t>NCT03560193</t>
+  </si>
+  <si>
+    <t>NCT04387253</t>
+  </si>
+  <si>
+    <t>NCT04456972</t>
   </si>
   <si>
     <t>NCT02703922</t>
   </si>
   <si>
-    <t>NCT04387253</t>
+    <t>NCT05224648</t>
+  </si>
+  <si>
+    <t>NCT04971213</t>
   </si>
   <si>
     <t>NCT05231525</t>
   </si>
   <si>
-    <t>NCT03560193</t>
-  </si>
-  <si>
-    <t>NCT04456972</t>
-  </si>
-  <si>
-    <t>NCT04792879</t>
-  </si>
-  <si>
-    <t>NCT05224648</t>
-  </si>
-  <si>
-    <t>NCT03497832</t>
-  </si>
-  <si>
-    <t>NCT04971213</t>
-  </si>
-  <si>
-    <t>NCT05158010</t>
+    <t>NCT05064839</t>
+  </si>
+  <si>
+    <t>NCT05404425</t>
+  </si>
+  <si>
+    <t>NCT03481569</t>
+  </si>
+  <si>
+    <t>NCT06533982</t>
+  </si>
+  <si>
+    <t>NCT03863041</t>
   </si>
   <si>
     <t>NCT04936880</t>
   </si>
   <si>
-    <t>NCT05064839</t>
-  </si>
-  <si>
-    <t>NCT03863041</t>
-  </si>
-  <si>
-    <t>NCT03481569</t>
-  </si>
-  <si>
-    <t>NCT05404425</t>
-  </si>
-  <si>
-    <t>NCT06533982</t>
+    <t>NCT03389997</t>
+  </si>
+  <si>
+    <t>NCT05036772</t>
   </si>
   <si>
     <t>NCT05963672</t>
   </si>
   <si>
-    <t>NCT05036772</t>
+    <t>NCT05610683</t>
   </si>
   <si>
     <t>NCT03444779</t>
   </si>
   <si>
-    <t>NCT03389997</t>
-  </si>
-  <si>
-    <t>NCT05610683</t>
+    <t>NCT00845221</t>
+  </si>
+  <si>
+    <t>NCT01291537</t>
+  </si>
+  <si>
+    <t>NCT01059890</t>
   </si>
   <si>
     <t>NCT01061047</t>
@@ -364,60 +373,51 @@
     <t>NCT00992615</t>
   </si>
   <si>
-    <t>NCT01059890</t>
-  </si>
-  <si>
-    <t>NCT00845221</t>
+    <t>NCT01351142</t>
+  </si>
+  <si>
+    <t>NCT01629550</t>
+  </si>
+  <si>
+    <t>NCT02545595</t>
+  </si>
+  <si>
+    <t>NCT01537614</t>
+  </si>
+  <si>
+    <t>NCT01872546</t>
+  </si>
+  <si>
+    <t>NCT01673542</t>
+  </si>
+  <si>
+    <t>NCT02142075</t>
+  </si>
+  <si>
+    <t>NCT02424890</t>
   </si>
   <si>
     <t>NCT01675986</t>
   </si>
   <si>
-    <t>NCT01673542</t>
-  </si>
-  <si>
-    <t>NCT01351142</t>
-  </si>
-  <si>
-    <t>NCT02545595</t>
-  </si>
-  <si>
-    <t>NCT01537614</t>
-  </si>
-  <si>
-    <t>NCT01291537</t>
-  </si>
-  <si>
-    <t>NCT01629550</t>
-  </si>
-  <si>
-    <t>NCT02142075</t>
-  </si>
-  <si>
-    <t>NCT01872546</t>
-  </si>
-  <si>
-    <t>NCT02424890</t>
-  </si>
-  <si>
     <t>NCT01532401</t>
   </si>
   <si>
+    <t>NCT01060891</t>
+  </si>
+  <si>
     <t>NCT00779922</t>
   </si>
   <si>
+    <t>NCT01061073</t>
+  </si>
+  <si>
+    <t>NCT01649726</t>
+  </si>
+  <si>
     <t>NCT01711060</t>
   </si>
   <si>
-    <t>NCT01060891</t>
-  </si>
-  <si>
-    <t>NCT01061073</t>
-  </si>
-  <si>
-    <t>NCT01649726</t>
-  </si>
-  <si>
     <t>2010-019837-85</t>
   </si>
   <si>
@@ -475,22 +475,40 @@
     <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase With Age More Than 70, Diagnosis of CML is Being Performed Within 1 Year</t>
   </si>
   <si>
+    <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
+  </si>
+  <si>
     <t>Efficacy and Safety of Maintenance Neoral Compared to Bitherapy Neoral-Imurel or Neoral-CellCept in Renal Transplantation</t>
   </si>
   <si>
-    <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
-  </si>
-  <si>
     <t>Clinical Effect of the Association of Noninvasive Ventilation and High Flow Nasal Oxygen Therapy in Resuscitation of Patients With Acute Lung Injury. A Randomised Study (FLORALI Study)</t>
   </si>
   <si>
     <t>A Phase III Prospective Randomized Comparison of Imatinib at a Dose of 400mg in Combination With Peg-Interferon-alpha2a (Peg-IFNa2a) or Cytarabine (Ara-C)Versus Imatinib at a Dose of 600mg Versus Imatinib a Dose of 400mg for Previously Untreated Chronic Myelogenous Leukemia (CML) in Chronic Phase</t>
   </si>
   <si>
+    <t>Étude de la toxicité cutanée du cétuximab (anti-Epidermal Growth Factor Receptor): recherche d’un lien entre la réponse inflammatoire cutanée et la réponse radiologique.</t>
+  </si>
+  <si>
     <t>Effects of Drinking at PACU Discharge After General Anaesthesia With Airway Control on Aspiration, Vomiting and Patients Comfort.</t>
   </si>
   <si>
-    <t>Étude de la toxicité cutanée du cétuximab (anti-Epidermal Growth Factor Receptor): recherche d’un lien entre la réponse inflammatoire cutanée et la réponse radiologique.</t>
+    <t>Comparative Noninvasive Continuous Cardiac Output by the Clearsight With Invasive Monitoring by Pulsioflex in Abdominal Surgery</t>
+  </si>
+  <si>
+    <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
+  </si>
+  <si>
+    <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
+  </si>
+  <si>
+    <t>Comparison of Pre-oxygenation by Non-invasive Ventilation With High-flow Nasal Oxygen Therapy for Intubation of Intensive Care Patients in Cases of Acute Respiratory Failure: A Prospective, Randomized, Controlled Study (FLORALI 2)</t>
+  </si>
+  <si>
+    <t>Physiological Upper Eyelid Laxity</t>
+  </si>
+  <si>
+    <t>Validation of a Physiological Based Pharmacokinetic Model by the Study of Paracetamol Distribution in the Brain Compartments in Brain Injured Patients</t>
   </si>
   <si>
     <t>EVALUATION OF EARLY PRE-OPERATIVE INTRAVESICAL INSTILLATION OF MYTOMYCIN-C AFTER TRANSURETHRAL RESECTION OF BLADDER TUMOR COMPARED TO  EARLY POST-OPERATIVE INSTILLATION. A RANDOMIZED MULTICENTER STUDY. 
@@ -500,219 +518,201 @@
     <t>Effects of Sleep Deprivation on Diaphragm Command During an Inspiratory Endurance Trial in Healthy Volunteers.</t>
   </si>
   <si>
-    <t>Validation of a Physiological Based Pharmacokinetic Model by the Study of Paracetamol Distribution in the Brain Compartments in Brain Injured Patients</t>
-  </si>
-  <si>
-    <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
-  </si>
-  <si>
-    <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
-  </si>
-  <si>
-    <t>Comparative Noninvasive Continuous Cardiac Output by the Clearsight With Invasive Monitoring by Pulsioflex in Abdominal Surgery</t>
-  </si>
-  <si>
     <t>Value of Target-controlled Intravenous Anaesthesia (TCIVA) to Optimize Coverage of the Low Back Pain Territory in Patients With Chronic Refractory Postoperative Multifocal Low Back and Legpain</t>
   </si>
   <si>
-    <t>Physiological Upper Eyelid Laxity</t>
-  </si>
-  <si>
-    <t>Comparison of Pre-oxygenation by Non-invasive Ventilation With High-flow Nasal Oxygen Therapy for Intubation of Intensive Care Patients in Cases of Acute Respiratory Failure: A Prospective, Randomized, Controlled Study (FLORALI 2)</t>
+    <t>Interest of Branched Chain Amino Acids Associated With a Respiratory Rehabilitation Program in Patients Broncho Chronic Obstructive Pulmonary Disease. Randomized Study Against Placebo</t>
+  </si>
+  <si>
+    <t>Efficacy of Aflibercept (Eylea®) on Choroidal Neovascularization (Type 3)</t>
+  </si>
+  <si>
+    <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
+  </si>
+  <si>
+    <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
+  </si>
+  <si>
+    <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
   </si>
   <si>
     <t>Comparison of Hemodialysis With Medium Cut-off Dialyzer (Theranova) and High Flux Dialyzer on Removal of Small and Middle Size Molecules, Inflammatory Parameters and Oxidative Stress. An Open Cross Over Randomized Study</t>
   </si>
   <si>
-    <t>Interest of Branched Chain Amino Acids Associated With a Respiratory Rehabilitation Program in Patients Broncho Chronic Obstructive Pulmonary Disease. Randomized Study Against Placebo</t>
-  </si>
-  <si>
-    <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
-  </si>
-  <si>
-    <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
-  </si>
-  <si>
-    <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
-  </si>
-  <si>
-    <t>Efficacy of Aflibercept (Eylea®) on Choroidal Neovascularization (Type 3)</t>
-  </si>
-  <si>
     <t>The Use of Perfusion CT Derived Parameters as Early Acute Pancreatitis Severity Biomarker Compared to Clinico Biological Score</t>
   </si>
   <si>
+    <t>A Multicenter Prospective Study on Failed Back Surgery Syndrome Pathway Optimization: A Focus on Patient Identification, Chronicization Factors and Outcome Predictors</t>
+  </si>
+  <si>
     <t>Skin Antisepsis With Chlorhexidine-Alcohol Versus Povidone Iodine-Alcohol, Combined or Not With Use of a Bundle of New Devices, for Prevention of Intravascular-catheter Colonization and Catheter Failure: An Open Label, Single Center, Randomized Controlled, Two-by-two Factorial Trial</t>
   </si>
   <si>
+    <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
+  </si>
+  <si>
+    <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
+  </si>
+  <si>
+    <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
+  </si>
+  <si>
+    <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
+  </si>
+  <si>
+    <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
+  </si>
+  <si>
     <t>Immunosuppression's Long Term Impact on Anti-tumoral Oversight in Kidney Transplantation</t>
   </si>
   <si>
-    <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
-  </si>
-  <si>
-    <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
-  </si>
-  <si>
-    <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
-  </si>
-  <si>
-    <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
-  </si>
-  <si>
-    <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
-  </si>
-  <si>
-    <t>A Multicenter Prospective Study on Failed Back Surgery Syndrome Pathway Optimization: A Focus on Patient Identification, Chronicization Factors and Outcome Predictors</t>
+    <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
   </si>
   <si>
     <t>Evaluation of the Efficacy of Transcutaneous Trigeminal Nerve Stimulation for Prevention of Cerebral Vasospasm and Its Consequences After Subarachnoid Haemorrhage Due to Ruptured Aneurysm: a Multicentre, Randomized, Double-blind Study</t>
   </si>
   <si>
-    <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
+    <t>PROPHY-VAP: Prevention of Early Ventilation Acquired Pneumonia (VAP) in Brain Injured Patients by a Single Dose of Ceftriaxone</t>
+  </si>
+  <si>
+    <t>Phase 2 Study of Safety and Efficacy of Aflibercept in Proliferative Diabetic Retinopathy.</t>
+  </si>
+  <si>
+    <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
+  </si>
+  <si>
+    <t>Performance of a Non-invasive Test for the Detection of Helicobacter Pylori and Its Resistance to Clarithromycin in Stool by Real-Time PCR Amplidiag H. Pylori + ClariR (Mobidiag)</t>
+  </si>
+  <si>
+    <t>Effect of an Environmental Health Education Program on Pregnant Women in Order to Reduce Endocrine Disruptor Exposition : Controled Randomized Trial on Primary Prevention</t>
+  </si>
+  <si>
+    <t>Characterization of the Initial Psoriatic Skin Transcriptionnl Profile Associated to a Response to Adalimumab Therapy</t>
+  </si>
+  <si>
+    <t>Prospective Multicenter Randomized Openlabel Study to Evaluate the Benefit on Renal Function at 12months Post-transplantation of Immunosuppressive Treatment With Withdrawal of Calcineurin Inhibitor at 3months and Combining Mycophenolate Sodium-Everolimus Versus Tacrolimus-Everolimus, in Patients With de Novo Kidney Transplant</t>
   </si>
   <si>
     <t>Effects of Sleep Privation on Sensorimotor Integration of the Upper Limb During a Manual Endurance Test in Healthy Volunteers-Physiological Study</t>
   </si>
   <si>
-    <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>Phase 2 Study of Safety and Efficacy of Aflibercept in Proliferative Diabetic Retinopathy.</t>
-  </si>
-  <si>
-    <t>Characterization of the Initial Psoriatic Skin Transcriptionnl Profile Associated to a Response to Adalimumab Therapy</t>
-  </si>
-  <si>
-    <t>Performance of a Non-invasive Test for the Detection of Helicobacter Pylori and Its Resistance to Clarithromycin in Stool by Real-Time PCR Amplidiag H. Pylori + ClariR (Mobidiag)</t>
-  </si>
-  <si>
-    <t>Prospective Multicenter Randomized Openlabel Study to Evaluate the Benefit on Renal Function at 12months Post-transplantation of Immunosuppressive Treatment With Withdrawal of Calcineurin Inhibitor at 3months and Combining Mycophenolate Sodium-Everolimus Versus Tacrolimus-Everolimus, in Patients With de Novo Kidney Transplant</t>
-  </si>
-  <si>
-    <t>Effect of an Environmental Health Education Program on Pregnant Women in Order to Reduce Endocrine Disruptor Exposition : Controled Randomized Trial on Primary Prevention</t>
-  </si>
-  <si>
-    <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
-  </si>
-  <si>
-    <t>PROPHY-VAP: Prevention of Early Ventilation Acquired Pneumonia (VAP) in Brain Injured Patients by a Single Dose of Ceftriaxone</t>
+    <t>Analysis of Chilblains Profile During COVID-19 Epidemic</t>
+  </si>
+  <si>
+    <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
+  </si>
+  <si>
+    <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
+  </si>
+  <si>
+    <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
+  </si>
+  <si>
+    <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
+  </si>
+  <si>
+    <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
   </si>
   <si>
     <t>Benefits of Observing Point-light Displays in Postoperative Rehabilitation of the Total Knee Prosthesis.</t>
   </si>
   <si>
+    <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
+  </si>
+  <si>
+    <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
+  </si>
+  <si>
+    <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
+  </si>
+  <si>
     <t>Influence of Oesophageal Contractile Reserve in High Resolution Manometry on Post Operative Dysphagia After Anti-reflux Surgery</t>
   </si>
   <si>
     <t>Assessment of Muscular Respiratory Involvement in Systemic Sclerosis</t>
   </si>
   <si>
-    <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
-  </si>
-  <si>
-    <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
-  </si>
-  <si>
-    <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
-  </si>
-  <si>
     <t>Estimation of the Incidence of Colonization of Peripheral Venous Catheters After Skin Disinfection With 0.5% Sodium Hypochlorite, Preceded or Not by an Application of 70% Ethanol: Pilot, Monocentric, Randomized, Open-label Study</t>
   </si>
   <si>
-    <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
-  </si>
-  <si>
-    <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
+    <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Sugamamdex</t>
   </si>
   <si>
-    <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
-  </si>
-  <si>
-    <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
-  </si>
-  <si>
-    <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
-  </si>
-  <si>
-    <t>Analysis of Chilblains Profile During COVID-19 Epidemic</t>
+    <t>Diurnal Variations of Cerebral Metabolite Concentrations in Proton Magnetic Resonance Spectroscopy</t>
+  </si>
+  <si>
+    <t>Advancing Tools for Human Early Lifecourse Exposome Research and Translation- Adolescence Follow-up of the HELIX Subcohort</t>
+  </si>
+  <si>
+    <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
+  </si>
+  <si>
+    <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
+  </si>
+  <si>
+    <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
   </si>
   <si>
     <t>Evaluation of a Diagnostic Strategy for Giant Cell Arteritis Based on Color Doppler Ultrasound of Temporal Arteries</t>
   </si>
   <si>
-    <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
+    <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Neostigmine</t>
+  </si>
+  <si>
+    <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
   </si>
   <si>
     <t>Recovery Evaluation of Two Neuromuscular Blockade Monitoring Devices on Abductor Pollicis Muscle, the TOFScan and the Wireless WiTOF</t>
   </si>
   <si>
-    <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
-  </si>
-  <si>
-    <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
-  </si>
-  <si>
-    <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Neostigmine</t>
-  </si>
-  <si>
-    <t>Diurnal Variations of Cerebral Metabolite Concentrations in Proton Magnetic Resonance Spectroscopy</t>
-  </si>
-  <si>
-    <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
-  </si>
-  <si>
-    <t>Advancing Tools for Human Early Lifecourse Exposome Research and Translation- Adolescence Follow-up of the HELIX Subcohort</t>
-  </si>
-  <si>
-    <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
+    <t>Imaging for the Evaluation of Transthyretin Cardiac Amyloidosis Prevalence of Patients Over 65 Hospitalized in Cardiology Wards (the IMPACT Study)</t>
+  </si>
+  <si>
+    <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
+  </si>
+  <si>
+    <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
+  </si>
+  <si>
+    <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
+  </si>
+  <si>
+    <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
   </si>
   <si>
     <t>Pilot Study on the Evaluation of the Effectiveness of a Virtual Reality Device on Anxiety During Procedural Sedation in Traumatology in Emergency Department</t>
   </si>
   <si>
-    <t>Imaging for the Evaluation of Transthyretin Cardiac Amyloidosis Prevalence of Patients Over 65 Hospitalized in Cardiology Wards (the IMPACT Study)</t>
-  </si>
-  <si>
-    <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
-  </si>
-  <si>
-    <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
-  </si>
-  <si>
-    <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
-  </si>
-  <si>
-    <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
+    <t>Assessement of Viral Shedding Duration After a Respiratory Tract Infection in Oncology and Hematology Patients</t>
+  </si>
+  <si>
+    <t>Assessment of Patients' Pain and Anxiety During a Hysterosalpingography Narratified by a Virtual Reality Helmet.</t>
   </si>
   <si>
     <t>Assessment of Sleep Quality of Hospitalized Patients Treated With EEG-guided Protection Procedures: Application in Intensive Care Unit. (SleepScan)</t>
   </si>
   <si>
-    <t>Assessment of Patients' Pain and Anxiety During a Hysterosalpingography Narratified by a Virtual Reality Helmet.</t>
+    <t>Comparison of the Removal of Uremic Toxins With Medium Cut-off and Super High-flux Vitamin E-coated Dialyzers The E-FLUX Randomized Study</t>
   </si>
   <si>
     <t>Comparative Evaluation of Minimally Invasive "tibial Tuberoplasty" Surgical Technique Versus Conventional Open Surgery for Tibial Plateau Fractures (TUBERIMPACT Study)</t>
   </si>
   <si>
-    <t>Assessement of Viral Shedding Duration After a Respiratory Tract Infection in Oncology and Hematology Patients</t>
-  </si>
-  <si>
-    <t>Comparison of the Removal of Uremic Toxins With Medium Cut-off and Super High-flux Vitamin E-coated Dialyzers The E-FLUX Randomized Study</t>
-  </si>
-  <si>
     <t>Comparison of 20-core vs 12-core Prostate Biopsy Diagnostic Performance in the Detection of Prostate Cancer</t>
   </si>
   <si>
@@ -734,202 +734,202 @@
     <t>CHARGE</t>
   </si>
   <si>
+    <t>EDUCARTPED</t>
+  </si>
+  <si>
     <t>PROPHYLOXITINE</t>
   </si>
   <si>
-    <t>EDUCARTPED</t>
-  </si>
-  <si>
     <t>BARODEF</t>
   </si>
   <si>
     <t>I-DRINC</t>
   </si>
   <si>
+    <t>CLEARSIGHT</t>
+  </si>
+  <si>
+    <t>ADDICSTATINE</t>
+  </si>
+  <si>
+    <t>PERFE-CT</t>
+  </si>
+  <si>
+    <t>FLORALI2</t>
+  </si>
+  <si>
+    <t>GENTAERO</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>WEAN SLEEP 1</t>
+  </si>
+  <si>
+    <t>TEMP CORE BLOC</t>
+  </si>
+  <si>
+    <t>CurHaTOF</t>
+  </si>
+  <si>
     <t>NoSleepDiaph</t>
   </si>
   <si>
-    <t>CurHaTOF</t>
-  </si>
-  <si>
-    <t>WEAN SLEEP 1</t>
-  </si>
-  <si>
-    <t>TEMP CORE BLOC</t>
-  </si>
-  <si>
-    <t>PERFE-CT</t>
-  </si>
-  <si>
-    <t>ADDICSTATINE</t>
-  </si>
-  <si>
-    <t>CLEARSIGHT</t>
-  </si>
-  <si>
     <t>AIVOC</t>
   </si>
   <si>
-    <t>LAX</t>
-  </si>
-  <si>
-    <t>FLORALI2</t>
-  </si>
-  <si>
-    <t>GENTAERO</t>
+    <t>REHABAAR</t>
+  </si>
+  <si>
+    <t>ATTRACT</t>
+  </si>
+  <si>
+    <t>AGATE</t>
+  </si>
+  <si>
+    <t>HIGH-WEAN</t>
+  </si>
+  <si>
+    <t>PROMONOTECHO</t>
+  </si>
+  <si>
+    <t>CEFTAREA</t>
   </si>
   <si>
     <t>CLEARPICCO</t>
   </si>
   <si>
+    <t>SAS-SB</t>
+  </si>
+  <si>
+    <t>TempCore</t>
+  </si>
+  <si>
     <t>THERANOVA</t>
   </si>
   <si>
-    <t>TempCore</t>
-  </si>
-  <si>
-    <t>REHABAAR</t>
-  </si>
-  <si>
-    <t>SAS-SB</t>
-  </si>
-  <si>
-    <t>HIGH-WEAN</t>
-  </si>
-  <si>
-    <t>PROMONOTECHO</t>
-  </si>
-  <si>
-    <t>AGATE</t>
-  </si>
-  <si>
-    <t>CEFTAREA</t>
-  </si>
-  <si>
-    <t>ATTRACT</t>
-  </si>
-  <si>
     <t>K-PA</t>
   </si>
   <si>
+    <t>PREDIBACK</t>
+  </si>
+  <si>
     <t>CLEAN3</t>
   </si>
   <si>
+    <t>MONITURARE</t>
+  </si>
+  <si>
+    <t>MONITOF</t>
+  </si>
+  <si>
+    <t>FLORALI-IM</t>
+  </si>
+  <si>
+    <t>PAINLESS</t>
+  </si>
+  <si>
     <t>SCLEROKINE</t>
   </si>
   <si>
-    <t>MONITOF</t>
-  </si>
-  <si>
-    <t>PAINLESS</t>
-  </si>
-  <si>
-    <t>FLORALI-IM</t>
-  </si>
-  <si>
-    <t>MONITURARE</t>
-  </si>
-  <si>
-    <t>PREDIBACK</t>
+    <t>NEBULAMB</t>
   </si>
   <si>
     <t>TRIVASOSTIM</t>
   </si>
   <si>
-    <t>NEBULAMB</t>
+    <t>PROPHY-VAP</t>
   </si>
   <si>
     <t>KILLER</t>
   </si>
   <si>
+    <t>HEPYSTOOL</t>
+  </si>
+  <si>
     <t>IMPRA</t>
   </si>
   <si>
-    <t>HEPYSTOOL</t>
-  </si>
-  <si>
-    <t>PROPHY-VAP</t>
+    <t>ACROVID</t>
+  </si>
+  <si>
+    <t>ACCUMBENS</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>PERFECTO</t>
+  </si>
+  <si>
+    <t>NiCEPHORE</t>
   </si>
   <si>
     <t>LOARAL</t>
   </si>
   <si>
+    <t>MULTIWAVE</t>
+  </si>
+  <si>
     <t>SIROCO</t>
   </si>
   <si>
-    <t>NiCEPHORE</t>
-  </si>
-  <si>
-    <t>PERFECTO</t>
-  </si>
-  <si>
     <t>DACLEAN</t>
   </si>
   <si>
-    <t>ACCUMBENS</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
     <t>TiP-Ex</t>
   </si>
   <si>
-    <t>MULTIWAVE</t>
-  </si>
-  <si>
-    <t>ACROVID</t>
+    <t>Dyn24</t>
+  </si>
+  <si>
+    <t>ATHLETE</t>
+  </si>
+  <si>
+    <t>CODOVEIN</t>
+  </si>
+  <si>
+    <t>CLEAN2</t>
   </si>
   <si>
     <t>ECHORTON</t>
   </si>
   <si>
-    <t>CLEAN2</t>
-  </si>
-  <si>
-    <t>CODOVEIN</t>
-  </si>
-  <si>
     <t>DECURATOF 2</t>
   </si>
   <si>
-    <t>Dyn24</t>
-  </si>
-  <si>
-    <t>ATHLETE</t>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>NIEPCE</t>
+  </si>
+  <si>
+    <t>WOMEN-EX-MOD</t>
   </si>
   <si>
     <t>VIRTUAL DREAM</t>
   </si>
   <si>
-    <t>IMPACT</t>
-  </si>
-  <si>
-    <t>NIEPCE</t>
-  </si>
-  <si>
-    <t>WOMEN-EX-MOD</t>
+    <t>ONCOVIR</t>
+  </si>
+  <si>
+    <t>Daphné</t>
   </si>
   <si>
     <t>SleepScan</t>
   </si>
   <si>
-    <t>Daphné</t>
+    <t>E-FLUX</t>
   </si>
   <si>
     <t>TUBERIMPACT</t>
   </si>
   <si>
-    <t>ONCOVIR</t>
-  </si>
-  <si>
-    <t>E-FLUX</t>
+    <t>CLEAN</t>
   </si>
   <si>
     <t>COLI-VLM</t>
-  </si>
-  <si>
-    <t>CLEAN</t>
   </si>
   <si>
     <t>DAPTOREA</t>
@@ -1472,7 +1472,7 @@
         <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1512,7 +1512,7 @@
         <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1557,10 +1557,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1572,15 +1572,15 @@
         <v>239</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1592,7 +1592,7 @@
         <v>240</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1622,8 +1622,8 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
+      <c r="D15" t="s">
+        <v>134</v>
       </c>
       <c r="F15" t="s">
         <v>142</v>
@@ -1631,12 +1631,6 @@
       <c r="G15" t="s">
         <v>157</v>
       </c>
-      <c r="H15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I15" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -1645,14 +1639,20 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>134</v>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>142</v>
       </c>
       <c r="G16" t="s">
         <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1696,8 +1696,8 @@
       <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>135</v>
+      <c r="C19" t="s">
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>143</v>
@@ -1705,16 +1705,22 @@
       <c r="G19" t="s">
         <v>159</v>
       </c>
+      <c r="H19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I19" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>143</v>
@@ -1723,70 +1729,73 @@
         <v>160</v>
       </c>
       <c r="H20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>143</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>143</v>
       </c>
-      <c r="H22" t="s">
-        <v>245</v>
+      <c r="G22" t="s">
+        <v>161</v>
       </c>
       <c r="I22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
       </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
       <c r="H23" t="s">
         <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1797,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>143</v>
@@ -1806,7 +1815,7 @@
         <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1817,16 +1826,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="H25" t="s">
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1837,59 +1849,53 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>143</v>
       </c>
-      <c r="G27" t="s">
-        <v>163</v>
-      </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I27" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
         <v>143</v>
       </c>
-      <c r="G28" t="s">
-        <v>164</v>
-      </c>
       <c r="H28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
         <v>308</v>
@@ -1902,8 +1908,8 @@
       <c r="B29" t="s">
         <v>14</v>
       </c>
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="D29" t="s">
+        <v>135</v>
       </c>
       <c r="F29" t="s">
         <v>143</v>
@@ -1911,19 +1917,13 @@
       <c r="G29" t="s">
         <v>165</v>
       </c>
-      <c r="H29" t="s">
-        <v>250</v>
-      </c>
-      <c r="I29" t="s">
-        <v>312</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -1931,22 +1931,19 @@
       <c r="F30" t="s">
         <v>143</v>
       </c>
-      <c r="G30" t="s">
-        <v>166</v>
-      </c>
       <c r="H30" t="s">
         <v>251</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -1955,13 +1952,13 @@
         <v>143</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
         <v>252</v>
       </c>
       <c r="I31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1977,11 +1974,14 @@
       <c r="F32" t="s">
         <v>143</v>
       </c>
+      <c r="G32" t="s">
+        <v>167</v>
+      </c>
       <c r="H32" t="s">
         <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1997,6 +1997,12 @@
       <c r="F33" t="s">
         <v>144</v>
       </c>
+      <c r="G33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" t="s">
+        <v>254</v>
+      </c>
       <c r="I33" t="s">
         <v>307</v>
       </c>
@@ -2014,19 +2020,22 @@
       <c r="F34" t="s">
         <v>144</v>
       </c>
+      <c r="G34" t="s">
+        <v>169</v>
+      </c>
       <c r="H34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -2034,11 +2043,8 @@
       <c r="F35" t="s">
         <v>144</v>
       </c>
-      <c r="G35" t="s">
-        <v>168</v>
-      </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I35" t="s">
         <v>308</v>
@@ -2046,10 +2052,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2057,11 +2063,14 @@
       <c r="F36" t="s">
         <v>144</v>
       </c>
+      <c r="G36" t="s">
+        <v>170</v>
+      </c>
       <c r="H36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2078,13 +2087,13 @@
         <v>144</v>
       </c>
       <c r="G37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2100,22 +2109,16 @@
       <c r="F38" t="s">
         <v>144</v>
       </c>
-      <c r="G38" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" t="s">
-        <v>258</v>
-      </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2124,13 +2127,13 @@
         <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
         <v>259</v>
       </c>
       <c r="I39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2146,22 +2149,19 @@
       <c r="F40" t="s">
         <v>144</v>
       </c>
-      <c r="G40" t="s">
-        <v>172</v>
-      </c>
       <c r="H40" t="s">
         <v>260</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
@@ -2169,11 +2169,14 @@
       <c r="F41" t="s">
         <v>144</v>
       </c>
+      <c r="G41" t="s">
+        <v>173</v>
+      </c>
       <c r="H41" t="s">
         <v>261</v>
       </c>
       <c r="I41" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2195,10 +2198,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2206,14 +2209,11 @@
       <c r="F43" t="s">
         <v>144</v>
       </c>
-      <c r="G43" t="s">
-        <v>173</v>
-      </c>
       <c r="H43" t="s">
         <v>262</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2236,7 +2236,7 @@
         <v>263</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2264,10 +2264,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -2282,15 +2282,15 @@
         <v>265</v>
       </c>
       <c r="I46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -2301,8 +2301,11 @@
       <c r="G47" t="s">
         <v>177</v>
       </c>
+      <c r="H47" t="s">
+        <v>266</v>
+      </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2322,10 +2325,10 @@
         <v>178</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I48" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2345,7 +2348,7 @@
         <v>179</v>
       </c>
       <c r="H49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I49" t="s">
         <v>308</v>
@@ -2353,10 +2356,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -2368,18 +2371,18 @@
         <v>180</v>
       </c>
       <c r="H50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -2391,10 +2394,10 @@
         <v>181</v>
       </c>
       <c r="H51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I51" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2414,10 +2417,10 @@
         <v>182</v>
       </c>
       <c r="H52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I52" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2436,19 +2439,16 @@
       <c r="G53" t="s">
         <v>183</v>
       </c>
-      <c r="H53" t="s">
-        <v>271</v>
-      </c>
       <c r="I53" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -2463,15 +2463,15 @@
         <v>272</v>
       </c>
       <c r="I54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -2486,15 +2486,15 @@
         <v>273</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
@@ -2505,16 +2505,19 @@
       <c r="G56" t="s">
         <v>186</v>
       </c>
+      <c r="H56" t="s">
+        <v>274</v>
+      </c>
       <c r="I56" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
@@ -2525,19 +2528,16 @@
       <c r="G57" t="s">
         <v>187</v>
       </c>
-      <c r="H57" t="s">
-        <v>274</v>
-      </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -2548,8 +2548,11 @@
       <c r="G58" t="s">
         <v>188</v>
       </c>
+      <c r="H58" t="s">
+        <v>275</v>
+      </c>
       <c r="I58" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2568,11 +2571,8 @@
       <c r="G59" t="s">
         <v>189</v>
       </c>
-      <c r="H59" t="s">
-        <v>275</v>
-      </c>
       <c r="I59" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2600,10 +2600,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
@@ -2615,15 +2615,15 @@
         <v>191</v>
       </c>
       <c r="I61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
@@ -2634,8 +2634,11 @@
       <c r="G62" t="s">
         <v>192</v>
       </c>
+      <c r="H62" t="s">
+        <v>277</v>
+      </c>
       <c r="I62" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2655,15 +2658,15 @@
         <v>193</v>
       </c>
       <c r="I63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -2674,11 +2677,8 @@
       <c r="G64" t="s">
         <v>194</v>
       </c>
-      <c r="H64" t="s">
-        <v>277</v>
-      </c>
       <c r="I64" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2701,7 +2701,7 @@
         <v>278</v>
       </c>
       <c r="I65" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2720,8 +2720,11 @@
       <c r="G66" t="s">
         <v>196</v>
       </c>
+      <c r="H66" t="s">
+        <v>279</v>
+      </c>
       <c r="I66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2740,19 +2743,16 @@
       <c r="G67" t="s">
         <v>197</v>
       </c>
-      <c r="H67" t="s">
-        <v>279</v>
-      </c>
       <c r="I67" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
@@ -2767,7 +2767,7 @@
         <v>280</v>
       </c>
       <c r="I68" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2795,10 +2795,10 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
@@ -2809,6 +2809,9 @@
       <c r="G70" t="s">
         <v>200</v>
       </c>
+      <c r="H70" t="s">
+        <v>282</v>
+      </c>
       <c r="I70" t="s">
         <v>311</v>
       </c>
@@ -2830,18 +2833,18 @@
         <v>201</v>
       </c>
       <c r="H71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I71" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
@@ -2853,10 +2856,10 @@
         <v>202</v>
       </c>
       <c r="H72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I72" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2875,11 +2878,8 @@
       <c r="G73" t="s">
         <v>203</v>
       </c>
-      <c r="H73" t="s">
-        <v>284</v>
-      </c>
       <c r="I73" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2899,7 +2899,7 @@
         <v>204</v>
       </c>
       <c r="I74" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2919,15 +2919,15 @@
         <v>205</v>
       </c>
       <c r="I75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
@@ -2942,7 +2942,7 @@
         <v>285</v>
       </c>
       <c r="I76" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2961,8 +2961,11 @@
       <c r="G77" t="s">
         <v>207</v>
       </c>
+      <c r="H77" t="s">
+        <v>286</v>
+      </c>
       <c r="I77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2982,10 +2985,10 @@
         <v>208</v>
       </c>
       <c r="H78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I78" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3004,19 +3007,16 @@
       <c r="G79" t="s">
         <v>209</v>
       </c>
-      <c r="H79" t="s">
-        <v>287</v>
-      </c>
       <c r="I79" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
@@ -3050,8 +3050,11 @@
       <c r="G81" t="s">
         <v>211</v>
       </c>
+      <c r="H81" t="s">
+        <v>289</v>
+      </c>
       <c r="I81" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3070,8 +3073,11 @@
       <c r="G82" t="s">
         <v>212</v>
       </c>
+      <c r="H82" t="s">
+        <v>290</v>
+      </c>
       <c r="I82" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3091,7 +3097,7 @@
         <v>213</v>
       </c>
       <c r="H83" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I83" t="s">
         <v>307</v>
@@ -3124,8 +3130,8 @@
       <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="C85" t="s">
-        <v>98</v>
+      <c r="D85" t="s">
+        <v>136</v>
       </c>
       <c r="F85" t="s">
         <v>148</v>
@@ -3133,12 +3139,6 @@
       <c r="G85" t="s">
         <v>215</v>
       </c>
-      <c r="H85" t="s">
-        <v>290</v>
-      </c>
-      <c r="I85" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
@@ -3148,7 +3148,7 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F86" t="s">
         <v>148</v>
@@ -3156,22 +3156,19 @@
       <c r="G86" t="s">
         <v>216</v>
       </c>
-      <c r="H86" t="s">
-        <v>291</v>
-      </c>
       <c r="I86" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
         <v>148</v>
@@ -3194,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
         <v>148</v>
@@ -3202,6 +3199,9 @@
       <c r="G88" t="s">
         <v>218</v>
       </c>
+      <c r="H88" t="s">
+        <v>293</v>
+      </c>
       <c r="I88" t="s">
         <v>308</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
         <v>148</v>
@@ -3222,11 +3222,8 @@
       <c r="G89" t="s">
         <v>219</v>
       </c>
-      <c r="H89" t="s">
-        <v>293</v>
-      </c>
       <c r="I89" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3236,8 +3233,8 @@
       <c r="B90" t="s">
         <v>14</v>
       </c>
-      <c r="D90" t="s">
-        <v>136</v>
+      <c r="C90" t="s">
+        <v>102</v>
       </c>
       <c r="F90" t="s">
         <v>148</v>
@@ -3245,6 +3242,9 @@
       <c r="G90" t="s">
         <v>220</v>
       </c>
+      <c r="I90" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
@@ -3266,7 +3266,7 @@
         <v>294</v>
       </c>
       <c r="I91" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3328,6 +3328,9 @@
       <c r="G94" t="s">
         <v>224</v>
       </c>
+      <c r="H94" t="s">
+        <v>296</v>
+      </c>
       <c r="I94" t="s">
         <v>311</v>
       </c>
@@ -3348,11 +3351,8 @@
       <c r="G95" t="s">
         <v>225</v>
       </c>
-      <c r="H95" t="s">
-        <v>296</v>
-      </c>
       <c r="I95" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3375,7 +3375,7 @@
         <v>297</v>
       </c>
       <c r="I96" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3398,7 +3398,7 @@
         <v>298</v>
       </c>
       <c r="I97" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3426,10 +3426,10 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
         <v>111</v>
@@ -3467,15 +3467,15 @@
         <v>301</v>
       </c>
       <c r="I100" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
         <v>113</v>
@@ -3495,10 +3495,10 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
         <v>114</v>
@@ -3509,19 +3509,16 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>115</v>
       </c>
-      <c r="G103" t="s">
-        <v>232</v>
-      </c>
       <c r="I103" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3540,10 +3537,10 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>117</v>
@@ -3554,16 +3551,19 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
         <v>118</v>
       </c>
+      <c r="G106" t="s">
+        <v>232</v>
+      </c>
       <c r="I106" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3577,21 +3577,24 @@
         <v>119</v>
       </c>
       <c r="I107" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
         <v>120</v>
       </c>
+      <c r="H108" t="s">
+        <v>303</v>
+      </c>
       <c r="I108" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3619,7 +3622,7 @@
         <v>122</v>
       </c>
       <c r="H110" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I110" t="s">
         <v>307</v>
@@ -3641,19 +3644,16 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
         <v>124</v>
       </c>
-      <c r="H112" t="s">
-        <v>304</v>
-      </c>
       <c r="I112" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3675,30 +3675,30 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
         <v>126</v>
       </c>
       <c r="I114" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>127</v>
       </c>
       <c r="I115" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3723,10 +3723,10 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>129</v>
@@ -3746,19 +3746,22 @@
         <v>130</v>
       </c>
       <c r="I118" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
         <v>131</v>
       </c>
+      <c r="G119" t="s">
+        <v>234</v>
+      </c>
       <c r="I119" t="s">
         <v>307</v>
       </c>
@@ -3773,11 +3776,8 @@
       <c r="C120" t="s">
         <v>132</v>
       </c>
-      <c r="G120" t="s">
-        <v>234</v>
-      </c>
       <c r="I120" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:9">

--- a/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
+++ b/publipostage2/029s6hd13/liste_essais_cliniques_identifies_029s6hd13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="324">
   <si>
     <t>statut</t>
   </si>
@@ -55,103 +55,136 @@
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00259350</t>
   </si>
   <si>
+    <t>NCT00219726</t>
+  </si>
+  <si>
     <t>NCT00219752</t>
   </si>
   <si>
-    <t>NCT00219726</t>
-  </si>
-  <si>
     <t>NCT00461825</t>
   </si>
   <si>
     <t>NCT01320384</t>
   </si>
   <si>
+    <t>NCT02205632</t>
+  </si>
+  <si>
     <t>NCT01823965</t>
   </si>
   <si>
     <t>NCT00219739</t>
   </si>
   <si>
-    <t>NCT02205632</t>
+    <t>NCT03186144</t>
   </si>
   <si>
     <t>NCT01628237</t>
   </si>
   <si>
-    <t>NCT03186144</t>
+    <t>NCT01292356</t>
+  </si>
+  <si>
+    <t>NCT02930382</t>
   </si>
   <si>
     <t>NCT02797730</t>
   </si>
   <si>
+    <t>NCT02193737</t>
+  </si>
+  <si>
+    <t>NCT01958996</t>
+  </si>
+  <si>
     <t>NCT02703857</t>
   </si>
   <si>
-    <t>NCT02930382</t>
-  </si>
-  <si>
-    <t>NCT02193737</t>
-  </si>
-  <si>
-    <t>NCT01292356</t>
-  </si>
-  <si>
-    <t>NCT01958996</t>
+    <t>NCT02725190</t>
   </si>
   <si>
     <t>NCT02717468</t>
   </si>
   <si>
+    <t>NCT02668458</t>
+  </si>
+  <si>
+    <t>NCT02515448</t>
+  </si>
+  <si>
+    <t>NCT02920281</t>
+  </si>
+  <si>
+    <t>NCT02821897</t>
+  </si>
+  <si>
+    <t>NCT03447457</t>
+  </si>
+  <si>
+    <t>NCT03367065</t>
+  </si>
+  <si>
     <t>NCT02399709</t>
   </si>
   <si>
-    <t>NCT03367065</t>
-  </si>
-  <si>
-    <t>NCT03447457</t>
-  </si>
-  <si>
-    <t>NCT02668458</t>
-  </si>
-  <si>
-    <t>NCT02515448</t>
+    <t>NCT02869828</t>
+  </si>
+  <si>
+    <t>NCT03223506</t>
+  </si>
+  <si>
+    <t>NCT02825121</t>
   </si>
   <si>
     <t>NCT03439644</t>
   </si>
   <si>
-    <t>NCT03223506</t>
-  </si>
-  <si>
-    <t>NCT02920281</t>
-  </si>
-  <si>
-    <t>NCT02869828</t>
-  </si>
-  <si>
-    <t>NCT02825121</t>
-  </si>
-  <si>
-    <t>NCT02725190</t>
-  </si>
-  <si>
-    <t>NCT02821897</t>
+    <t>NCT03747874</t>
+  </si>
+  <si>
+    <t>NCT02931227</t>
+  </si>
+  <si>
+    <t>NCT02534974</t>
+  </si>
+  <si>
+    <t>NCT03025841</t>
+  </si>
+  <si>
+    <t>NCT02941952</t>
+  </si>
+  <si>
+    <t>NCT02110888</t>
+  </si>
+  <si>
+    <t>NCT03634878</t>
+  </si>
+  <si>
+    <t>NCT03198637</t>
+  </si>
+  <si>
+    <t>NCT03211676</t>
+  </si>
+  <si>
+    <t>NCT03456557</t>
+  </si>
+  <si>
+    <t>NCT03121482</t>
   </si>
   <si>
     <t>NCT03644836</t>
@@ -160,264 +193,240 @@
     <t>NCT02320474</t>
   </si>
   <si>
-    <t>NCT02534974</t>
-  </si>
-  <si>
-    <t>NCT03121482</t>
-  </si>
-  <si>
-    <t>NCT03634878</t>
-  </si>
-  <si>
-    <t>NCT03198637</t>
-  </si>
-  <si>
-    <t>NCT03025841</t>
-  </si>
-  <si>
-    <t>NCT02941952</t>
-  </si>
-  <si>
-    <t>NCT03747874</t>
-  </si>
-  <si>
-    <t>NCT02110888</t>
-  </si>
-  <si>
-    <t>NCT02931227</t>
-  </si>
-  <si>
-    <t>NCT03211676</t>
-  </si>
-  <si>
-    <t>NCT03456557</t>
+    <t>NCT03847740</t>
+  </si>
+  <si>
+    <t>NCT02978300</t>
+  </si>
+  <si>
+    <t>NCT03227965</t>
+  </si>
+  <si>
+    <t>NCT03250871</t>
+  </si>
+  <si>
+    <t>NCT03757143</t>
+  </si>
+  <si>
+    <t>NCT02273661</t>
+  </si>
+  <si>
+    <t>NCT03981042</t>
+  </si>
+  <si>
+    <t>NCT03537105</t>
+  </si>
+  <si>
+    <t>NCT02482883</t>
   </si>
   <si>
     <t>NCT02964130</t>
   </si>
   <si>
-    <t>NCT03757143</t>
-  </si>
-  <si>
-    <t>NCT03981042</t>
-  </si>
-  <si>
-    <t>NCT03847740</t>
-  </si>
-  <si>
-    <t>NCT02978300</t>
-  </si>
-  <si>
-    <t>NCT03250871</t>
-  </si>
-  <si>
-    <t>NCT03537105</t>
-  </si>
-  <si>
-    <t>NCT03227965</t>
-  </si>
-  <si>
-    <t>NCT02273661</t>
-  </si>
-  <si>
-    <t>NCT02482883</t>
+    <t>NCT04371965</t>
   </si>
   <si>
     <t>NCT02265406</t>
   </si>
   <si>
+    <t>NCT03233984</t>
+  </si>
+  <si>
+    <t>NCT03461094</t>
+  </si>
+  <si>
+    <t>NCT03404427</t>
+  </si>
+  <si>
+    <t>NCT03566004</t>
+  </si>
+  <si>
+    <t>NCT02334488</t>
+  </si>
+  <si>
     <t>NCT02151695</t>
   </si>
   <si>
-    <t>NCT04371965</t>
-  </si>
-  <si>
-    <t>NCT03461094</t>
-  </si>
-  <si>
-    <t>NCT03566004</t>
-  </si>
-  <si>
-    <t>NCT03233984</t>
-  </si>
-  <si>
     <t>NCT03389984</t>
   </si>
   <si>
-    <t>NCT02334488</t>
-  </si>
-  <si>
-    <t>NCT03404427</t>
+    <t>NCT04391660</t>
+  </si>
+  <si>
+    <t>NCT02463617</t>
+  </si>
+  <si>
+    <t>NCT04118725</t>
+  </si>
+  <si>
+    <t>NCT03105921</t>
+  </si>
+  <si>
+    <t>NCT03209843</t>
+  </si>
+  <si>
+    <t>NCT03496285</t>
+  </si>
+  <si>
+    <t>NCT04034797</t>
+  </si>
+  <si>
+    <t>NCT03856983</t>
+  </si>
+  <si>
+    <t>NCT03014583</t>
+  </si>
+  <si>
+    <t>NCT03374930</t>
+  </si>
+  <si>
+    <t>NCT03344263</t>
+  </si>
+  <si>
+    <t>NCT04978740</t>
+  </si>
+  <si>
+    <t>NCT04227639</t>
   </si>
   <si>
     <t>NCT04387955</t>
   </si>
   <si>
-    <t>NCT03496285</t>
-  </si>
-  <si>
-    <t>NCT04978740</t>
-  </si>
-  <si>
-    <t>NCT03344263</t>
-  </si>
-  <si>
-    <t>NCT03209843</t>
-  </si>
-  <si>
-    <t>NCT04034797</t>
-  </si>
-  <si>
-    <t>NCT03856983</t>
-  </si>
-  <si>
-    <t>NCT03014583</t>
-  </si>
-  <si>
-    <t>NCT03105921</t>
-  </si>
-  <si>
-    <t>NCT02463617</t>
-  </si>
-  <si>
-    <t>NCT03374930</t>
-  </si>
-  <si>
-    <t>NCT04118725</t>
-  </si>
-  <si>
-    <t>NCT04391660</t>
-  </si>
-  <si>
-    <t>NCT04227639</t>
-  </si>
-  <si>
     <t>NCT05003024</t>
   </si>
   <si>
     <t>NCT03497832</t>
   </si>
   <si>
+    <t>NCT04792879</t>
+  </si>
+  <si>
+    <t>NCT04387253</t>
+  </si>
+  <si>
+    <t>NCT03560193</t>
+  </si>
+  <si>
+    <t>NCT04971213</t>
+  </si>
+  <si>
+    <t>NCT04456972</t>
+  </si>
+  <si>
+    <t>NCT05231525</t>
+  </si>
+  <si>
     <t>NCT05158010</t>
   </si>
   <si>
-    <t>NCT04792879</t>
-  </si>
-  <si>
-    <t>NCT03560193</t>
-  </si>
-  <si>
-    <t>NCT04387253</t>
-  </si>
-  <si>
-    <t>NCT04456972</t>
-  </si>
-  <si>
     <t>NCT02703922</t>
   </si>
   <si>
     <t>NCT05224648</t>
   </si>
   <si>
-    <t>NCT04971213</t>
-  </si>
-  <si>
-    <t>NCT05231525</t>
+    <t>NCT04224246</t>
+  </si>
+  <si>
+    <t>NCT03863041</t>
+  </si>
+  <si>
+    <t>NCT05404425</t>
+  </si>
+  <si>
+    <t>NCT06533982</t>
+  </si>
+  <si>
+    <t>NCT04936880</t>
+  </si>
+  <si>
+    <t>NCT03481569</t>
   </si>
   <si>
     <t>NCT05064839</t>
   </si>
   <si>
-    <t>NCT05404425</t>
-  </si>
-  <si>
-    <t>NCT03481569</t>
-  </si>
-  <si>
-    <t>NCT06533982</t>
-  </si>
-  <si>
-    <t>NCT03863041</t>
-  </si>
-  <si>
-    <t>NCT04936880</t>
+    <t>NCT05036772</t>
+  </si>
+  <si>
+    <t>NCT05963672</t>
+  </si>
+  <si>
+    <t>NCT03845790</t>
+  </si>
+  <si>
+    <t>NCT03444779</t>
+  </si>
+  <si>
+    <t>NCT05610683</t>
   </si>
   <si>
     <t>NCT03389997</t>
   </si>
   <si>
-    <t>NCT05036772</t>
-  </si>
-  <si>
-    <t>NCT05963672</t>
-  </si>
-  <si>
-    <t>NCT05610683</t>
-  </si>
-  <si>
-    <t>NCT03444779</t>
+    <t>NCT05786248</t>
+  </si>
+  <si>
+    <t>NCT00992615</t>
+  </si>
+  <si>
+    <t>NCT01351142</t>
+  </si>
+  <si>
+    <t>NCT01673542</t>
+  </si>
+  <si>
+    <t>NCT01061047</t>
+  </si>
+  <si>
+    <t>NCT02545595</t>
+  </si>
+  <si>
+    <t>NCT01291537</t>
+  </si>
+  <si>
+    <t>NCT01629550</t>
+  </si>
+  <si>
+    <t>NCT01059890</t>
+  </si>
+  <si>
+    <t>NCT01711060</t>
+  </si>
+  <si>
+    <t>NCT01675986</t>
+  </si>
+  <si>
+    <t>NCT01872546</t>
   </si>
   <si>
     <t>NCT00845221</t>
   </si>
   <si>
-    <t>NCT01291537</t>
-  </si>
-  <si>
-    <t>NCT01059890</t>
-  </si>
-  <si>
-    <t>NCT01061047</t>
-  </si>
-  <si>
-    <t>NCT00992615</t>
-  </si>
-  <si>
-    <t>NCT01351142</t>
-  </si>
-  <si>
-    <t>NCT01629550</t>
-  </si>
-  <si>
-    <t>NCT02545595</t>
+    <t>NCT01532401</t>
+  </si>
+  <si>
+    <t>NCT02424890</t>
+  </si>
+  <si>
+    <t>NCT00779922</t>
+  </si>
+  <si>
+    <t>NCT01649726</t>
+  </si>
+  <si>
+    <t>NCT01061073</t>
   </si>
   <si>
     <t>NCT01537614</t>
   </si>
   <si>
-    <t>NCT01872546</t>
-  </si>
-  <si>
-    <t>NCT01673542</t>
-  </si>
-  <si>
     <t>NCT02142075</t>
   </si>
   <si>
-    <t>NCT02424890</t>
-  </si>
-  <si>
-    <t>NCT01675986</t>
-  </si>
-  <si>
-    <t>NCT01532401</t>
-  </si>
-  <si>
     <t>NCT01060891</t>
   </si>
   <si>
-    <t>NCT00779922</t>
-  </si>
-  <si>
-    <t>NCT01061073</t>
-  </si>
-  <si>
-    <t>NCT01649726</t>
-  </si>
-  <si>
-    <t>NCT01711060</t>
-  </si>
-  <si>
     <t>2010-019837-85</t>
   </si>
   <si>
@@ -472,12 +481,12 @@
     <t>Prevention of Central Venous Catheter Infections : Comparison of the Efficacy of Skin Disinfection With 5% Povidone Iodine in Alcoholic Solution Versus 0.25% Chlorhexidine, 0.025 Benzalkonium and 4% Benzylic Alcohol</t>
   </si>
   <si>
+    <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
+  </si>
+  <si>
     <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase With Age More Than 70, Diagnosis of CML is Being Performed Within 1 Year</t>
   </si>
   <si>
-    <t>Phase II Trial to Study the Tolerability and the Effectiveness of Imatinib in Patients With Chronic Myelogenous Leukemia in Chronic Phase in Relapse After Allogeneic Stem Cell Transplantation</t>
-  </si>
-  <si>
     <t>Efficacy and Safety of Maintenance Neoral Compared to Bitherapy Neoral-Imurel or Neoral-CellCept in Renal Transplantation</t>
   </si>
   <si>
@@ -493,224 +502,233 @@
     <t>Effects of Drinking at PACU Discharge After General Anaesthesia With Airway Control on Aspiration, Vomiting and Patients Comfort.</t>
   </si>
   <si>
+    <t>Effects of Sleep Deprivation on Diaphragm Command During an Inspiratory Endurance Trial in Healthy Volunteers.</t>
+  </si>
+  <si>
     <t>Comparative Noninvasive Continuous Cardiac Output by the Clearsight With Invasive Monitoring by Pulsioflex in Abdominal Surgery</t>
   </si>
   <si>
-    <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
-  </si>
-  <si>
-    <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
-  </si>
-  <si>
     <t>Comparison of Pre-oxygenation by Non-invasive Ventilation With High-flow Nasal Oxygen Therapy for Intubation of Intensive Care Patients in Cases of Acute Respiratory Failure: A Prospective, Randomized, Controlled Study (FLORALI 2)</t>
-  </si>
-  <si>
-    <t>Physiological Upper Eyelid Laxity</t>
-  </si>
-  <si>
-    <t>Validation of a Physiological Based Pharmacokinetic Model by the Study of Paracetamol Distribution in the Brain Compartments in Brain Injured Patients</t>
   </si>
   <si>
     <t>EVALUATION OF EARLY PRE-OPERATIVE INTRAVESICAL INSTILLATION OF MYTOMYCIN-C AFTER TRANSURETHRAL RESECTION OF BLADDER TUMOR COMPARED TO  EARLY POST-OPERATIVE INSTILLATION. A RANDOMIZED MULTICENTER STUDY. 
  Evaluation de la mitomycine C en installation pré-opératoire immédiate (IPOI) des résections endoscopiques des tumeurs de vessie comparée à l’installation post-opératoire précoce (IPOP).Etude multicentrique randomisée.</t>
   </si>
   <si>
-    <t>Effects of Sleep Deprivation on Diaphragm Command During an Inspiratory Endurance Trial in Healthy Volunteers.</t>
-  </si>
-  <si>
     <t>Value of Target-controlled Intravenous Anaesthesia (TCIVA) to Optimize Coverage of the Low Back Pain Territory in Patients With Chronic Refractory Postoperative Multifocal Low Back and Legpain</t>
   </si>
   <si>
+    <t>Early Initiation of High-flow Nasal Cannula Oxygen Therapy in Patients With Acute Respiratory Failure in the Emergency Department: A Before-after Study</t>
+  </si>
+  <si>
+    <t>Pilot Randomized Double Blind, Placebo Controlled Trial of the Efficacy of Simvastatin for Smoking Cessation</t>
+  </si>
+  <si>
+    <t>Validation of a Physiological Based Pharmacokinetic Model by the Study of Paracetamol Distribution in the Brain Compartments in Brain Injured Patients</t>
+  </si>
+  <si>
+    <t>Physiological Upper Eyelid Laxity</t>
+  </si>
+  <si>
+    <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
+  </si>
+  <si>
+    <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
+  </si>
+  <si>
+    <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
+  </si>
+  <si>
+    <t>Comparison of Hemodialysis With Medium Cut-off Dialyzer (Theranova) and High Flux Dialyzer on Removal of Small and Middle Size Molecules, Inflammatory Parameters and Oxidative Stress. An Open Cross Over Randomized Study</t>
+  </si>
+  <si>
+    <t>The Use of Perfusion CT Derived Parameters as Early Acute Pancreatitis Severity Biomarker Compared to Clinico Biological Score</t>
+  </si>
+  <si>
+    <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
+  </si>
+  <si>
     <t>Interest of Branched Chain Amino Acids Associated With a Respiratory Rehabilitation Program in Patients Broncho Chronic Obstructive Pulmonary Disease. Randomized Study Against Placebo</t>
   </si>
   <si>
     <t>Efficacy of Aflibercept (Eylea®) on Choroidal Neovascularization (Type 3)</t>
   </si>
   <si>
-    <t>High-flow Nasal Cannula Oxygen Therapy With or Without Non-invasive Ventilation (NIV) During the Weaning Period: a Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of the Position of Promontofixation Prostheses in Perineal Ultrasound</t>
-  </si>
-  <si>
-    <t>Population Pharmacokinetic (PK) Study of Zinforo (Ceftaroline) in Critical Care Patients With Early-onset Pneumonia and Normal or Augmented Renal Clearance</t>
-  </si>
-  <si>
-    <t>Prevalence of Obstructive Sleep Apnea Syndrome in Patients With a History of Sudden Sensorineural Hearing Loss</t>
-  </si>
-  <si>
-    <t>Comparison of Hemodialysis With Medium Cut-off Dialyzer (Theranova) and High Flux Dialyzer on Removal of Small and Middle Size Molecules, Inflammatory Parameters and Oxidative Stress. An Open Cross Over Randomized Study</t>
-  </si>
-  <si>
-    <t>The Use of Perfusion CT Derived Parameters as Early Acute Pancreatitis Severity Biomarker Compared to Clinico Biological Score</t>
+    <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
+  </si>
+  <si>
+    <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
+  </si>
+  <si>
+    <t>Immunosuppression's Long Term Impact on Anti-tumoral Oversight in Kidney Transplantation</t>
+  </si>
+  <si>
+    <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
+  </si>
+  <si>
+    <t>Skin Antisepsis With Chlorhexidine-Alcohol Versus Povidone Iodine-Alcohol, Combined or Not With Use of a Bundle of New Devices, for Prevention of Intravascular-catheter Colonization and Catheter Failure: An Open Label, Single Center, Randomized Controlled, Two-by-two Factorial Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
+  </si>
+  <si>
+    <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
+  </si>
+  <si>
+    <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
+  </si>
+  <si>
+    <t>Evaluation of the Efficacy of Transcutaneous Trigeminal Nerve Stimulation for Prevention of Cerebral Vasospasm and Its Consequences After Subarachnoid Haemorrhage Due to Ruptured Aneurysm: a Multicentre, Randomized, Double-blind Study</t>
   </si>
   <si>
     <t>A Multicenter Prospective Study on Failed Back Surgery Syndrome Pathway Optimization: A Focus on Patient Identification, Chronicization Factors and Outcome Predictors</t>
   </si>
   <si>
-    <t>Skin Antisepsis With Chlorhexidine-Alcohol Versus Povidone Iodine-Alcohol, Combined or Not With Use of a Bundle of New Devices, for Prevention of Intravascular-catheter Colonization and Catheter Failure: An Open Label, Single Center, Randomized Controlled, Two-by-two Factorial Trial</t>
-  </si>
-  <si>
-    <t>Comparison Between the Neuromuscular Blockade Onset Monitoring and the Expectation of a Fixed Delay After Curarization on the Quality of Laryngoscopy During Intubation in Elective Surgery (MONITURARE)</t>
-  </si>
-  <si>
-    <t>Safety and Feasibility of a New Neuromuscular Monitoring Device</t>
-  </si>
-  <si>
-    <t>High-Flow Nasal Cannula Oxygen Therapy (HFNC) Alone or Associated With Noninvasive Ventilation (NIV) for Immunocompromised Patients Admitted to Intensive Care Unit for Acute Respiratory Failure : FLORALI-Immunodéprimés</t>
-  </si>
-  <si>
-    <t>Hypnosis Contribution to Interventional Electrophysiology Performed Under Local Anesthesia and Morphine Titration Study PAINLESS : Does Hypnosis Reduce Pain in Electrophysiology Procedures ?</t>
-  </si>
-  <si>
-    <t>Analysis of Cytokine Expression Pattern in Systemic Sclerosis: Study of the Role of Interleukine-34</t>
-  </si>
-  <si>
-    <t>Immunosuppression's Long Term Impact on Anti-tumoral Oversight in Kidney Transplantation</t>
-  </si>
-  <si>
-    <t>Evaluation of a Therapeutic Strategy Including Nebulised Liposomal Amphotericin B (Ambisome®) in Maintenance Treatment of Allergic Bronchopulmonary Aspergillosis (Cystic Fibrosis Excluded)</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of Transcutaneous Trigeminal Nerve Stimulation for Prevention of Cerebral Vasospasm and Its Consequences After Subarachnoid Haemorrhage Due to Ruptured Aneurysm: a Multicentre, Randomized, Double-blind Study</t>
+    <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
   </si>
   <si>
     <t>PROPHY-VAP: Prevention of Early Ventilation Acquired Pneumonia (VAP) in Brain Injured Patients by a Single Dose of Ceftriaxone</t>
   </si>
   <si>
+    <t>Effect of an Environmental Health Education Program on Pregnant Women in Order to Reduce Endocrine Disruptor Exposition : Controled Randomized Trial on Primary Prevention</t>
+  </si>
+  <si>
+    <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
+  </si>
+  <si>
+    <t>Effects of Sleep Privation on Sensorimotor Integration of the Upper Limb During a Manual Endurance Test in Healthy Volunteers-Physiological Study</t>
+  </si>
+  <si>
+    <t>Performance of a Non-invasive Test for the Detection of Helicobacter Pylori and Its Resistance to Clarithromycin in Stool by Real-Time PCR Amplidiag H. Pylori + ClariR (Mobidiag)</t>
+  </si>
+  <si>
+    <t>Prospective Multicenter Randomized Openlabel Study to Evaluate the Benefit on Renal Function at 12months Post-transplantation of Immunosuppressive Treatment With Withdrawal of Calcineurin Inhibitor at 3months and Combining Mycophenolate Sodium-Everolimus Versus Tacrolimus-Everolimus, in Patients With de Novo Kidney Transplant</t>
+  </si>
+  <si>
     <t>Phase 2 Study of Safety and Efficacy of Aflibercept in Proliferative Diabetic Retinopathy.</t>
   </si>
   <si>
-    <t>Povidone Iodine Mouthwash, Gargle, and Nasal Spray to Reduce Naso- Pharyngeal Viral Load in Patients With SARS-CoV-2</t>
-  </si>
-  <si>
-    <t>Fluid Responsiveness Evaluation in Patients With Acute Circulatory Failure and Arrhythmia With Atrial Fibrillation: Indice Delta ITV / Delta RR</t>
-  </si>
-  <si>
-    <t>Performance of a Non-invasive Test for the Detection of Helicobacter Pylori and Its Resistance to Clarithromycin in Stool by Real-Time PCR Amplidiag H. Pylori + ClariR (Mobidiag)</t>
-  </si>
-  <si>
-    <t>Effect of an Environmental Health Education Program on Pregnant Women in Order to Reduce Endocrine Disruptor Exposition : Controled Randomized Trial on Primary Prevention</t>
-  </si>
-  <si>
     <t>Characterization of the Initial Psoriatic Skin Transcriptionnl Profile Associated to a Response to Adalimumab Therapy</t>
   </si>
   <si>
-    <t>Prospective Multicenter Randomized Openlabel Study to Evaluate the Benefit on Renal Function at 12months Post-transplantation of Immunosuppressive Treatment With Withdrawal of Calcineurin Inhibitor at 3months and Combining Mycophenolate Sodium-Everolimus Versus Tacrolimus-Everolimus, in Patients With de Novo Kidney Transplant</t>
-  </si>
-  <si>
-    <t>Effects of Sleep Privation on Sensorimotor Integration of the Upper Limb During a Manual Endurance Test in Healthy Volunteers-Physiological Study</t>
+    <t>Estimation of the Incidence of Colonization of Peripheral Venous Catheters After Skin Disinfection With 0.5% Sodium Hypochlorite, Preceded or Not by an Application of 70% Ethanol: Pilot, Monocentric, Randomized, Open-label Study</t>
+  </si>
+  <si>
+    <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
+  </si>
+  <si>
+    <t>Assessment of Muscular Respiratory Involvement in Systemic Sclerosis</t>
+  </si>
+  <si>
+    <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
+  </si>
+  <si>
+    <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
+  </si>
+  <si>
+    <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
+  </si>
+  <si>
+    <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
+  </si>
+  <si>
+    <t>Benefits of Observing Point-light Displays in Postoperative Rehabilitation of the Total Knee Prosthesis.</t>
+  </si>
+  <si>
+    <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
+  </si>
+  <si>
+    <t>Influence of Oesophageal Contractile Reserve in High Resolution Manometry on Post Operative Dysphagia After Anti-reflux Surgery</t>
+  </si>
+  <si>
+    <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
+  </si>
+  <si>
+    <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
+  </si>
+  <si>
+    <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
   </si>
   <si>
     <t>Analysis of Chilblains Profile During COVID-19 Epidemic</t>
   </si>
   <si>
-    <t>Multimodal MRI Study of Accumbofrontal Tract in Anorexia Nervosa and Obessional Compulsive Disorder : Search for Structural and Functional Changes Between Orbito-frontal Cortex and Accumbens Nucleus Subdivisions</t>
-  </si>
-  <si>
-    <t>Ocular and Palpebral Manifestations of Mastocytosis (MOOMA)</t>
-  </si>
-  <si>
-    <t>Study of the Reversibility of Vigilance Dysfunction at 6 Months of Continuous Positive Airways Pressure (CPAP) in Patients With Obstructive Sleep</t>
-  </si>
-  <si>
-    <t>Post-stenting Assessment of Reendothelialization With OFDI After CTO Procedure</t>
-  </si>
-  <si>
-    <t>AmbulaNCE Teletransmited PHOtography for Trauma REgulation</t>
-  </si>
-  <si>
-    <t>Benefits of Observing Point-light Displays in Postoperative Rehabilitation of the Total Knee Prosthesis.</t>
-  </si>
-  <si>
-    <t>Prospective, Randomized Study Comparing Conventional, Burst And High Frequency (HF) Spinal Cord Stimulation (SCS) in Refractory Failed Back Surgery Syndrome (FBSS) Patients After a 32-contact Surgical Lead Implantation</t>
-  </si>
-  <si>
-    <t>Intérêt de l'électroporation irréversible Dans le Traitement de l'adénocarcinome du pancréas</t>
-  </si>
-  <si>
-    <t>Impulsivity and Parkinson's Disease : a Neuropsychology With Magnetic Resonance Imaging Study</t>
-  </si>
-  <si>
-    <t>Influence of Oesophageal Contractile Reserve in High Resolution Manometry on Post Operative Dysphagia After Anti-reflux Surgery</t>
-  </si>
-  <si>
-    <t>Assessment of Muscular Respiratory Involvement in Systemic Sclerosis</t>
-  </si>
-  <si>
-    <t>Estimation of the Incidence of Colonization of Peripheral Venous Catheters After Skin Disinfection With 0.5% Sodium Hypochlorite, Preceded or Not by an Application of 70% Ethanol: Pilot, Monocentric, Randomized, Open-label Study</t>
-  </si>
-  <si>
-    <t>T-piece Versus Pressure-support for the Spontaneous Breathing Trial Before Extubation in Patients at High-risk of Reintubation: a Multicenter Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Sugamamdex</t>
   </si>
   <si>
+    <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
+  </si>
+  <si>
     <t>Diurnal Variations of Cerebral Metabolite Concentrations in Proton Magnetic Resonance Spectroscopy</t>
   </si>
   <si>
+    <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
+  </si>
+  <si>
+    <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
+  </si>
+  <si>
+    <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
+  </si>
+  <si>
+    <t>Recovery Evaluation of Two Neuromuscular Blockade Monitoring Devices on Abductor Pollicis Muscle, the TOFScan and the Wireless WiTOF</t>
+  </si>
+  <si>
     <t>Advancing Tools for Human Early Lifecourse Exposome Research and Translation- Adolescence Follow-up of the HELIX Subcohort</t>
   </si>
   <si>
-    <t>Assessment of Peripheral Veins Doppler Ultrasound for Diagnosis of Acute Right Heart Failure in Suspicion or Follow-up of Pulmonary Hypertension</t>
-  </si>
-  <si>
-    <t>An Open Label, Multicenter, Randomized Trial of 2% Chlorhexidine-70% Isopropanol vs 5% Povidone Iodine-69% Ethanol for Skin Antisepsis in Reducing Surgical-site Infection After Cardiac Surgery</t>
-  </si>
-  <si>
-    <t>Study of Late Fetal Loss in Poitou-Charentes. GYNE-COVID</t>
-  </si>
-  <si>
-    <t>Tumescent anesthesia efficiency in pain management during a dynamic phototherapy session in vertex actinic keratosis treatment: a single-center prospective randomized study.</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Contribution of Molecular Analysis of Endometrial Cancers: Reliability, and Interest of Circulating Tumor DNA</t>
-  </si>
-  <si>
     <t>Evaluation of a Diagnostic Strategy for Giant Cell Arteritis Based on Color Doppler Ultrasound of Temporal Arteries</t>
   </si>
   <si>
     <t>Comparison of Train of Four, Tetanus 50 Hz and Tetanus 100 Hz Recovery Following Rocuronium Induced Neuromuscular Block Reversed by Neostigmine</t>
   </si>
   <si>
-    <t>HIgh Flow Nasal Cannula Versus Noninvasive Ventilation for Acute Cardiogenic PuLmonary Oedema With Acute Respiratory Failure in an ED</t>
-  </si>
-  <si>
-    <t>Recovery Evaluation of Two Neuromuscular Blockade Monitoring Devices on Abductor Pollicis Muscle, the TOFScan and the Wireless WiTOF</t>
+    <t>Impact of Gamma-OH on Sleep in ICU Patients Difficult to Wean from Mechanical Ventilation</t>
+  </si>
+  <si>
+    <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
+  </si>
+  <si>
+    <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
+  </si>
+  <si>
+    <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
+  </si>
+  <si>
+    <t>Pilot Study on the Evaluation of the Effectiveness of a Virtual Reality Device on Anxiety During Procedural Sedation in Traumatology in Emergency Department</t>
+  </si>
+  <si>
+    <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
   </si>
   <si>
     <t>Imaging for the Evaluation of Transthyretin Cardiac Amyloidosis Prevalence of Patients Over 65 Hospitalized in Cardiology Wards (the IMPACT Study)</t>
   </si>
   <si>
-    <t>Non-severe Traumatic Injuries Evaluation Using smartPhone Camera for Extra-hospital Regulation</t>
-  </si>
-  <si>
-    <t>Population Pharmacokinetic-pharmacodynamic (PK-PD) Study of 9 Broad-Spectrum Anti-infective Agents in the Cerebro Spinal Fluid (CSF) of Brain Injured Patients With an External Ventricular Drainage (EVD).</t>
-  </si>
-  <si>
-    <t>Effect of Different Exercise Modalities on Cardiovascular and Cognitive Response in Postmenopausal Women With and Without Vasomotor Symptoms</t>
-  </si>
-  <si>
-    <t>Study of Phosphorylated Metabolism Profile as Predictive Biomarker of Cognitive Decline in Memory Complaint.</t>
-  </si>
-  <si>
-    <t>Pilot Study on the Evaluation of the Effectiveness of a Virtual Reality Device on Anxiety During Procedural Sedation in Traumatology in Emergency Department</t>
+    <t>Assessment of Patients' Pain and Anxiety During a Hysterosalpingography Narratified by a Virtual Reality Helmet.</t>
+  </si>
+  <si>
+    <t>Assessment of Sleep Quality of Hospitalized Patients Treated With EEG-guided Protection Procedures: Application in Intensive Care Unit. (SleepScan)</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic Study of Vancomycin, Clindamycin And/or Gentamicin Administration During Surgery Using a Microdialysis Procedure</t>
+  </si>
+  <si>
+    <t>Comparative Evaluation of Minimally Invasive "tibial Tuberoplasty" Surgical Technique Versus Conventional Open Surgery for Tibial Plateau Fractures (TUBERIMPACT Study)</t>
+  </si>
+  <si>
+    <t>Comparison of the Removal of Uremic Toxins With Medium Cut-off and Super High-flux Vitamin E-coated Dialyzers The E-FLUX Randomized Study</t>
   </si>
   <si>
     <t>Assessement of Viral Shedding Duration After a Respiratory Tract Infection in Oncology and Hematology Patients</t>
   </si>
   <si>
-    <t>Assessment of Patients' Pain and Anxiety During a Hysterosalpingography Narratified by a Virtual Reality Helmet.</t>
-  </si>
-  <si>
-    <t>Assessment of Sleep Quality of Hospitalized Patients Treated With EEG-guided Protection Procedures: Application in Intensive Care Unit. (SleepScan)</t>
-  </si>
-  <si>
-    <t>Comparison of the Removal of Uremic Toxins With Medium Cut-off and Super High-flux Vitamin E-coated Dialyzers The E-FLUX Randomized Study</t>
-  </si>
-  <si>
-    <t>Comparative Evaluation of Minimally Invasive "tibial Tuberoplasty" Surgical Technique Versus Conventional Open Surgery for Tibial Plateau Fractures (TUBERIMPACT Study)</t>
+    <t>MOdification of Fluid Distribution in 90 Minutes : Pilot Study - MORFE 90</t>
   </si>
   <si>
     <t>Comparison of 20-core vs 12-core Prostate Biopsy Diagnostic Performance in the Detection of Prostate Cancer</t>
@@ -728,55 +746,82 @@
     <t>SPIRIT</t>
   </si>
   <si>
+    <t>CHARGE</t>
+  </si>
+  <si>
     <t>ESTIMET</t>
   </si>
   <si>
-    <t>CHARGE</t>
+    <t>BARODEF</t>
   </si>
   <si>
     <t>EDUCARTPED</t>
   </si>
   <si>
+    <t>I-DRINC</t>
+  </si>
+  <si>
     <t>PROPHYLOXITINE</t>
   </si>
   <si>
-    <t>BARODEF</t>
-  </si>
-  <si>
-    <t>I-DRINC</t>
+    <t>NoSleepDiaph</t>
   </si>
   <si>
     <t>CLEARSIGHT</t>
   </si>
   <si>
+    <t>FLORALI2</t>
+  </si>
+  <si>
+    <t>GENTAERO</t>
+  </si>
+  <si>
+    <t>WEAN SLEEP 1</t>
+  </si>
+  <si>
+    <t>AIVOC</t>
+  </si>
+  <si>
+    <t>PERFE-CT</t>
+  </si>
+  <si>
     <t>ADDICSTATINE</t>
   </si>
   <si>
-    <t>PERFE-CT</t>
-  </si>
-  <si>
-    <t>FLORALI2</t>
-  </si>
-  <si>
-    <t>GENTAERO</t>
+    <t>TEMP CORE BLOC</t>
+  </si>
+  <si>
+    <t>CurHaTOF</t>
   </si>
   <si>
     <t>LAX</t>
   </si>
   <si>
-    <t>WEAN SLEEP 1</t>
-  </si>
-  <si>
-    <t>TEMP CORE BLOC</t>
-  </si>
-  <si>
-    <t>CurHaTOF</t>
-  </si>
-  <si>
-    <t>NoSleepDiaph</t>
-  </si>
-  <si>
-    <t>AIVOC</t>
+    <t>SAS-SB</t>
+  </si>
+  <si>
+    <t>TempCore</t>
+  </si>
+  <si>
+    <t>AGATE</t>
+  </si>
+  <si>
+    <t>CEFTAREA</t>
+  </si>
+  <si>
+    <t>CLEARPICCO</t>
+  </si>
+  <si>
+    <t>PROMONOTECHO</t>
+  </si>
+  <si>
+    <t>THERANOVA</t>
+  </si>
+  <si>
+    <t>K-PA</t>
+  </si>
+  <si>
+    <t>HIGH-WEAN</t>
   </si>
   <si>
     <t>REHABAAR</t>
@@ -785,159 +830,135 @@
     <t>ATTRACT</t>
   </si>
   <si>
-    <t>AGATE</t>
-  </si>
-  <si>
-    <t>HIGH-WEAN</t>
-  </si>
-  <si>
-    <t>PROMONOTECHO</t>
-  </si>
-  <si>
-    <t>CEFTAREA</t>
-  </si>
-  <si>
-    <t>CLEARPICCO</t>
-  </si>
-  <si>
-    <t>SAS-SB</t>
-  </si>
-  <si>
-    <t>TempCore</t>
-  </si>
-  <si>
-    <t>THERANOVA</t>
-  </si>
-  <si>
-    <t>K-PA</t>
+    <t>MONITOF</t>
+  </si>
+  <si>
+    <t>FLORALI-IM</t>
+  </si>
+  <si>
+    <t>PAINLESS</t>
+  </si>
+  <si>
+    <t>CLEAN3</t>
+  </si>
+  <si>
+    <t>NEBULAMB</t>
+  </si>
+  <si>
+    <t>MONITURARE</t>
+  </si>
+  <si>
+    <t>SCLEROKINE</t>
+  </si>
+  <si>
+    <t>TRIVASOSTIM</t>
   </si>
   <si>
     <t>PREDIBACK</t>
   </si>
   <si>
-    <t>CLEAN3</t>
-  </si>
-  <si>
-    <t>MONITURARE</t>
-  </si>
-  <si>
-    <t>MONITOF</t>
-  </si>
-  <si>
-    <t>FLORALI-IM</t>
-  </si>
-  <si>
-    <t>PAINLESS</t>
-  </si>
-  <si>
-    <t>SCLEROKINE</t>
-  </si>
-  <si>
-    <t>NEBULAMB</t>
-  </si>
-  <si>
-    <t>TRIVASOSTIM</t>
+    <t>KILLER</t>
   </si>
   <si>
     <t>PROPHY-VAP</t>
   </si>
   <si>
-    <t>KILLER</t>
-  </si>
-  <si>
     <t>HEPYSTOOL</t>
   </si>
   <si>
     <t>IMPRA</t>
   </si>
   <si>
+    <t>DACLEAN</t>
+  </si>
+  <si>
+    <t>SIROCO</t>
+  </si>
+  <si>
+    <t>PERFECTO</t>
+  </si>
+  <si>
+    <t>ACCUMBENS</t>
+  </si>
+  <si>
+    <t>NiCEPHORE</t>
+  </si>
+  <si>
+    <t>LOARAL</t>
+  </si>
+  <si>
+    <t>MULTIWAVE</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>TiP-Ex</t>
+  </si>
+  <si>
     <t>ACROVID</t>
   </si>
   <si>
-    <t>ACCUMBENS</t>
-  </si>
-  <si>
-    <t>VISA</t>
-  </si>
-  <si>
-    <t>PERFECTO</t>
-  </si>
-  <si>
-    <t>NiCEPHORE</t>
-  </si>
-  <si>
-    <t>LOARAL</t>
-  </si>
-  <si>
-    <t>MULTIWAVE</t>
-  </si>
-  <si>
-    <t>SIROCO</t>
-  </si>
-  <si>
-    <t>DACLEAN</t>
-  </si>
-  <si>
-    <t>TiP-Ex</t>
-  </si>
-  <si>
     <t>Dyn24</t>
   </si>
   <si>
+    <t>CODOVEIN</t>
+  </si>
+  <si>
+    <t>CLEAN2</t>
+  </si>
+  <si>
     <t>ATHLETE</t>
   </si>
   <si>
-    <t>CODOVEIN</t>
-  </si>
-  <si>
-    <t>CLEAN2</t>
-  </si>
-  <si>
     <t>ECHORTON</t>
   </si>
   <si>
     <t>DECURATOF 2</t>
   </si>
   <si>
+    <t>GO-SLEEP</t>
+  </si>
+  <si>
+    <t>NIEPCE</t>
+  </si>
+  <si>
+    <t>WOMEN-EX-MOD</t>
+  </si>
+  <si>
+    <t>VIRTUAL DREAM</t>
+  </si>
+  <si>
     <t>IMPACT</t>
   </si>
   <si>
-    <t>NIEPCE</t>
-  </si>
-  <si>
-    <t>WOMEN-EX-MOD</t>
-  </si>
-  <si>
-    <t>VIRTUAL DREAM</t>
+    <t>Daphné</t>
+  </si>
+  <si>
+    <t>SleepScan</t>
+  </si>
+  <si>
+    <t>TUBERIMPACT</t>
+  </si>
+  <si>
+    <t>E-FLUX</t>
   </si>
   <si>
     <t>ONCOVIR</t>
   </si>
   <si>
-    <t>Daphné</t>
-  </si>
-  <si>
-    <t>SleepScan</t>
-  </si>
-  <si>
-    <t>E-FLUX</t>
-  </si>
-  <si>
-    <t>TUBERIMPACT</t>
-  </si>
-  <si>
     <t>CLEAN</t>
   </si>
   <si>
+    <t>PLADSEL</t>
+  </si>
+  <si>
     <t>COLI-VLM</t>
   </si>
   <si>
     <t>DAPTOREA</t>
   </si>
   <si>
-    <t>PLADSEL</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
@@ -947,10 +968,13 @@
     <t>GENETIC</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
     <t>BEHAVIORAL</t>
-  </si>
-  <si>
-    <t>OTHER</t>
   </si>
   <si>
     <t>PROCEDURE</t>
@@ -1320,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,13 +1390,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1386,13 +1410,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1406,13 +1430,13 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1426,13 +1450,13 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1446,16 +1470,16 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1469,90 +1493,90 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1562,37 +1586,34 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
+      <c r="D12" t="s">
+        <v>137</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" t="s">
-        <v>239</v>
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1603,16 +1624,16 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H14" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I14" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1622,14 +1643,17 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>134</v>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" t="s">
-        <v>157</v>
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>246</v>
+      </c>
+      <c r="I15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1643,33 +1667,33 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H16" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I16" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1683,33 +1707,36 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>248</v>
       </c>
       <c r="I18" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I19" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1723,36 +1750,39 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>164</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I21" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1766,13 +1796,13 @@
         <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" t="s">
-        <v>161</v>
+        <v>146</v>
+      </c>
+      <c r="H22" t="s">
+        <v>252</v>
       </c>
       <c r="I22" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1786,16 +1816,13 @@
         <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I23" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1805,17 +1832,17 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>38</v>
+      <c r="D24" t="s">
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
-      </c>
-      <c r="H24" t="s">
-        <v>247</v>
+        <v>146</v>
+      </c>
+      <c r="G24" t="s">
+        <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1826,19 +1853,19 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1849,116 +1876,119 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I27" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="G28" t="s">
+        <v>168</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I28" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" t="s">
-        <v>165</v>
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" t="s">
-        <v>251</v>
+        <v>146</v>
+      </c>
+      <c r="G30" t="s">
+        <v>169</v>
       </c>
       <c r="I30" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
-      </c>
-      <c r="G31" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H31" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1972,16 +2002,16 @@
         <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H32" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1995,16 +2025,16 @@
         <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H33" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2018,16 +2048,13 @@
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2041,36 +2068,36 @@
         <v>48</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I36" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2084,16 +2111,13 @@
         <v>50</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="H37" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2107,33 +2131,33 @@
         <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2147,13 +2171,10 @@
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="I40" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2167,16 +2188,16 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H41" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2190,30 +2211,39 @@
         <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
+        <v>175</v>
+      </c>
+      <c r="H42" t="s">
+        <v>267</v>
       </c>
       <c r="I42" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="G43" t="s">
+        <v>176</v>
       </c>
       <c r="H43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="I43" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2227,16 +2257,16 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2250,16 +2280,16 @@
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G45" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H45" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2273,39 +2303,39 @@
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G46" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H46" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="I46" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G47" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="I47" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2319,16 +2349,13 @@
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G48" t="s">
-        <v>178</v>
-      </c>
-      <c r="H48" t="s">
-        <v>267</v>
+        <v>181</v>
       </c>
       <c r="I48" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2342,62 +2369,62 @@
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I49" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G50" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H50" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="I50" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H51" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2411,16 +2438,16 @@
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H52" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2434,36 +2461,39 @@
         <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="H53" t="s">
+        <v>277</v>
       </c>
       <c r="I53" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H54" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2477,16 +2507,16 @@
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G55" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H55" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="I55" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2500,59 +2530,59 @@
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H56" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="H57" t="s">
+        <v>281</v>
       </c>
       <c r="I57" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G58" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2566,13 +2596,13 @@
         <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G59" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I59" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2586,36 +2616,36 @@
         <v>73</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G60" t="s">
-        <v>190</v>
-      </c>
-      <c r="H60" t="s">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="I60" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G61" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="H61" t="s">
+        <v>282</v>
       </c>
       <c r="I61" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2629,13 +2659,10 @@
         <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G62" t="s">
-        <v>192</v>
-      </c>
-      <c r="H62" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
       <c r="I62" t="s">
         <v>314</v>
@@ -2652,13 +2679,13 @@
         <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2672,13 +2699,16 @@
         <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G64" t="s">
-        <v>194</v>
+        <v>197</v>
+      </c>
+      <c r="H64" t="s">
+        <v>283</v>
       </c>
       <c r="I64" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2692,13 +2722,13 @@
         <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G65" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H65" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I65" t="s">
         <v>314</v>
@@ -2715,16 +2745,13 @@
         <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
-      </c>
-      <c r="H66" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="I66" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2738,13 +2765,16 @@
         <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G67" t="s">
-        <v>197</v>
+        <v>200</v>
+      </c>
+      <c r="H67" t="s">
+        <v>285</v>
       </c>
       <c r="I67" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2758,16 +2788,13 @@
         <v>81</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G68" t="s">
-        <v>198</v>
-      </c>
-      <c r="H68" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="I68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2781,105 +2808,108 @@
         <v>82</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H69" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="I69" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H70" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I70" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G71" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H71" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="I71" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G72" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H72" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I72" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="H73" t="s">
+        <v>290</v>
       </c>
       <c r="I73" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2893,13 +2923,13 @@
         <v>87</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I74" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2913,13 +2943,16 @@
         <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G75" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="H75" t="s">
+        <v>291</v>
       </c>
       <c r="I75" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2933,62 +2966,59 @@
         <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G76" t="s">
-        <v>206</v>
-      </c>
-      <c r="H76" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="I76" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H77" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H78" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="I78" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3002,13 +3032,13 @@
         <v>92</v>
       </c>
       <c r="F79" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G79" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I79" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3018,20 +3048,17 @@
       <c r="B80" t="s">
         <v>14</v>
       </c>
-      <c r="C80" t="s">
-        <v>93</v>
+      <c r="D80" t="s">
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G80" t="s">
-        <v>210</v>
-      </c>
-      <c r="H80" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="I80" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3042,19 +3069,19 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G81" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H81" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="I81" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3065,59 +3092,59 @@
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G82" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H82" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I82" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G83" t="s">
-        <v>213</v>
-      </c>
-      <c r="H83" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G84" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="H84" t="s">
+        <v>296</v>
       </c>
       <c r="I84" t="s">
         <v>314</v>
@@ -3130,14 +3157,17 @@
       <c r="B85" t="s">
         <v>14</v>
       </c>
-      <c r="D85" t="s">
-        <v>136</v>
+      <c r="C85" t="s">
+        <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G85" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="I85" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3151,36 +3181,33 @@
         <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G86" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I86" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G87" t="s">
-        <v>217</v>
-      </c>
-      <c r="H87" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="I87" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3194,36 +3221,39 @@
         <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G88" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H88" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I88" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G89" t="s">
-        <v>219</v>
+        <v>222</v>
+      </c>
+      <c r="H89" t="s">
+        <v>298</v>
       </c>
       <c r="I89" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3237,13 +3267,16 @@
         <v>102</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G90" t="s">
-        <v>220</v>
+        <v>223</v>
+      </c>
+      <c r="H90" t="s">
+        <v>299</v>
       </c>
       <c r="I90" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3257,16 +3290,16 @@
         <v>103</v>
       </c>
       <c r="F91" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H91" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="I91" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3280,16 +3313,13 @@
         <v>104</v>
       </c>
       <c r="F92" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G92" t="s">
-        <v>222</v>
-      </c>
-      <c r="H92" t="s">
-        <v>295</v>
+        <v>225</v>
       </c>
       <c r="I92" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3303,13 +3333,16 @@
         <v>105</v>
       </c>
       <c r="F93" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G93" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="H93" t="s">
+        <v>301</v>
       </c>
       <c r="I93" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3323,16 +3356,16 @@
         <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G94" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H94" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I94" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3346,13 +3379,16 @@
         <v>107</v>
       </c>
       <c r="F95" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
-        <v>225</v>
+        <v>228</v>
+      </c>
+      <c r="H95" t="s">
+        <v>303</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3366,16 +3402,13 @@
         <v>108</v>
       </c>
       <c r="F96" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G96" t="s">
-        <v>226</v>
-      </c>
-      <c r="H96" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="I96" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3389,16 +3422,16 @@
         <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G97" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H97" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I97" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3412,16 +3445,16 @@
         <v>110</v>
       </c>
       <c r="F98" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G98" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H98" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I98" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3435,16 +3468,16 @@
         <v>111</v>
       </c>
       <c r="F99" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G99" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H99" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="I99" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3458,16 +3491,13 @@
         <v>112</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G100" t="s">
-        <v>230</v>
-      </c>
-      <c r="H100" t="s">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="I100" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3481,30 +3511,39 @@
         <v>113</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H101" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I101" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>114</v>
       </c>
+      <c r="F102" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102" t="s">
+        <v>235</v>
+      </c>
+      <c r="H102" t="s">
+        <v>308</v>
+      </c>
       <c r="I102" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3517,8 +3556,17 @@
       <c r="C103" t="s">
         <v>115</v>
       </c>
+      <c r="F103" t="s">
+        <v>153</v>
+      </c>
+      <c r="G103" t="s">
+        <v>236</v>
+      </c>
+      <c r="H103" t="s">
+        <v>309</v>
+      </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3531,39 +3579,45 @@
       <c r="C104" t="s">
         <v>116</v>
       </c>
+      <c r="F104" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" t="s">
+        <v>237</v>
+      </c>
       <c r="I104" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
         <v>117</v>
       </c>
+      <c r="G105" t="s">
+        <v>238</v>
+      </c>
       <c r="I105" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
         <v>118</v>
       </c>
-      <c r="G106" t="s">
-        <v>232</v>
-      </c>
       <c r="I106" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3577,24 +3631,21 @@
         <v>119</v>
       </c>
       <c r="I107" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
         <v>120</v>
       </c>
-      <c r="H108" t="s">
-        <v>303</v>
-      </c>
       <c r="I108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3608,7 +3659,7 @@
         <v>121</v>
       </c>
       <c r="I109" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3621,25 +3672,25 @@
       <c r="C110" t="s">
         <v>122</v>
       </c>
-      <c r="H110" t="s">
-        <v>304</v>
-      </c>
       <c r="I110" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>123</v>
       </c>
+      <c r="H111" t="s">
+        <v>310</v>
+      </c>
       <c r="I111" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3653,7 +3704,7 @@
         <v>124</v>
       </c>
       <c r="I112" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3666,25 +3717,22 @@
       <c r="C113" t="s">
         <v>125</v>
       </c>
-      <c r="H113" t="s">
-        <v>305</v>
-      </c>
       <c r="I113" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>126</v>
       </c>
       <c r="I114" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3698,55 +3746,55 @@
         <v>127</v>
       </c>
       <c r="I115" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
         <v>128</v>
       </c>
-      <c r="G116" t="s">
-        <v>233</v>
-      </c>
-      <c r="H116" t="s">
-        <v>306</v>
-      </c>
       <c r="I116" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
         <v>129</v>
       </c>
+      <c r="G117" t="s">
+        <v>239</v>
+      </c>
+      <c r="H117" t="s">
+        <v>311</v>
+      </c>
       <c r="I117" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
         <v>130</v>
       </c>
       <c r="I118" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3759,11 +3807,8 @@
       <c r="C119" t="s">
         <v>131</v>
       </c>
-      <c r="G119" t="s">
-        <v>234</v>
-      </c>
       <c r="I119" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3777,7 +3822,7 @@
         <v>132</v>
       </c>
       <c r="I120" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3790,8 +3835,59 @@
       <c r="C121" t="s">
         <v>133</v>
       </c>
+      <c r="G121" t="s">
+        <v>240</v>
+      </c>
       <c r="I121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" t="s">
         <v>312</v>
+      </c>
+      <c r="I122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>135</v>
+      </c>
+      <c r="H123" t="s">
+        <v>313</v>
+      </c>
+      <c r="I123" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>136</v>
+      </c>
+      <c r="I124" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
